--- a/data/hotels_by_city/Dallas/Dallas_shard_609.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_609.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1378 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r538136314-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>98839</t>
+  </si>
+  <si>
+    <t>538136314</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here !!!!</t>
+  </si>
+  <si>
+    <t>This place has the most money hungry owners.  Do not stay here.   If they get your credit card number - they charge as they please.  We did NOT stay here - and they still charges card.  Angry ! Beyond words- because I did not cancel with a 24 hour notice.  The reservation was made and cancelled with in 2 hours of each other.  They still charges my card as a no show.  Really????  Are you so money hungry that you need to charge people for mistakes?  I have no need for a room in Fort Worth when I needed (and stayed) in Weatherford TX. No idea how the Fort Worth got booked, but they were called immediately AND THEY STILL CHARGED MY CARD.  Don't stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>This place has the most money hungry owners.  Do not stay here.   If they get your credit card number - they charge as they please.  We did NOT stay here - and they still charges card.  Angry ! Beyond words- because I did not cancel with a 24 hour notice.  The reservation was made and cancelled with in 2 hours of each other.  They still charges my card as a no show.  Really????  Are you so money hungry that you need to charge people for mistakes?  I have no need for a room in Fort Worth when I needed (and stayed) in Weatherford TX. No idea how the Fort Worth got booked, but they were called immediately AND THEY STILL CHARGED MY CARD.  Don't stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r527094832-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>527094832</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Terrible, just terrible</t>
+  </si>
+  <si>
+    <t>I would give this place ZERO stars if I could. First, they want a $100 deposit up front when you check in. Which is really strange. On the good side, the room seemed clean, there was a microwave and fridge. BUT there was also MOLD in the air and on the bathroom air vent! I woke up with a terrible headache. I wanted to charge THEM $100 for affecting my health. Also, we could hear people talking through the bathroom vent until 4:00 AM in the morning. There were cigarette butts on the ground outside--hundreds of them--everywhere, also old trash. Oh--we left the room spotless, all towels in place, etc. But we still haven't gotten our $100 "deposit" back. So did I pay $164.10 for a moldy room? Breakfast was just okay with the worst coffee I have ever tasted, strange eggs, desiccated fruit. The yogurt was okay, hash browns and white gravy okay. My head still hurts. I will NEVER go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I would give this place ZERO stars if I could. First, they want a $100 deposit up front when you check in. Which is really strange. On the good side, the room seemed clean, there was a microwave and fridge. BUT there was also MOLD in the air and on the bathroom air vent! I woke up with a terrible headache. I wanted to charge THEM $100 for affecting my health. Also, we could hear people talking through the bathroom vent until 4:00 AM in the morning. There were cigarette butts on the ground outside--hundreds of them--everywhere, also old trash. Oh--we left the room spotless, all towels in place, etc. But we still haven't gotten our $100 "deposit" back. So did I pay $164.10 for a moldy room? Breakfast was just okay with the worst coffee I have ever tasted, strange eggs, desiccated fruit. The yogurt was okay, hash browns and white gravy okay. My head still hurts. I will NEVER go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r524206766-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>524206766</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Do not Pass Go....Book another Hotel</t>
+  </si>
+  <si>
+    <t>This place is old and need an upgrade. The last guy that work there...Brad needs to go. Not friendly, low budget but will charge charge you if you book third party. Don't bother reporting your experience, they only help customers that book directly through the chain. Ridiculous that you have answer questions about you when you call the hotel to be directed to the room. Also, if a customer ask you about the availability of a hotel room, just say we have rooms or not, not lead off with we will charge you for early check in. Anyone interested in staying here DO NOT. This may be a typical Quality Inn for some but its not worth it, you put down a deposit to pay the amount advertised and you have check in and out and if you need to stay longer...of course you pay for another room. Other Quality Inn's are much better. I recommend the Holiday Inn Express next door...very nice and friendly staff. Quality Inn at this location needs to be shut down.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This place is old and need an upgrade. The last guy that work there...Brad needs to go. Not friendly, low budget but will charge charge you if you book third party. Don't bother reporting your experience, they only help customers that book directly through the chain. Ridiculous that you have answer questions about you when you call the hotel to be directed to the room. Also, if a customer ask you about the availability of a hotel room, just say we have rooms or not, not lead off with we will charge you for early check in. Anyone interested in staying here DO NOT. This may be a typical Quality Inn for some but its not worth it, you put down a deposit to pay the amount advertised and you have check in and out and if you need to stay longer...of course you pay for another room. Other Quality Inn's are much better. I recommend the Holiday Inn Express next door...very nice and friendly staff. Quality Inn at this location needs to be shut down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r500577910-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>500577910</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>When you choose to stay here, please remember that it is a budget lodging and adjust your expectations accordingly. That being said, I was in town for an event and just wanted a cheap place to stay. This met most of my needs; the bed was comfortable and clean, it was close to my event, and the towels folded into an elephant was a nice touch. However, the bathtub was in a pretty sad state as the stopper lever cover was completely off so I could see the plumbing behind the wall, and breakfast was skip worthy.Normally I'd put this at closer to 2-3 stars, but will give it the benefit of the doubt with a 3-4 star rating since it is a budget establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>When you choose to stay here, please remember that it is a budget lodging and adjust your expectations accordingly. That being said, I was in town for an event and just wanted a cheap place to stay. This met most of my needs; the bed was comfortable and clean, it was close to my event, and the towels folded into an elephant was a nice touch. However, the bathtub was in a pretty sad state as the stopper lever cover was completely off so I could see the plumbing behind the wall, and breakfast was skip worthy.Normally I'd put this at closer to 2-3 stars, but will give it the benefit of the doubt with a 3-4 star rating since it is a budget establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r492579008-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>492579008</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Close to Downtown, Zoo and Musuems</t>
+  </si>
+  <si>
+    <t>Needed a room for a convention in Downtown Ft Worth and every thing was booked up near the convention center,, this property was a 15 minute drive and a straight shot up I-30...quick and easy.  The rate was awesome considering all the room we had 4 ladies in one room with 2 bathrooms was Fantastic and having a separate living area off the bedroom was cozy to hang out and visit...all the staff was very nice and the breakfast was so good</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r480195376-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>480195376</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>This place is horrible, do not pay with a cash deposit, you will not get it back!!</t>
+  </si>
+  <si>
+    <t>I had spent the night there about two weeks prior, I had a $50 deposit, upon check out I was told that there were two hand towels and two large towels missing. I met housekeeping up there and found the two large towels in the bathroom, found one wash cloth but could not find the other. I was told to go on to the desk, it will be fine. I get to the desk and they charge me $10.00 for a 90 cent wash cloth that was never in my room. I asked the desk people and they said there were two large towels, two medium towels, and two wash cloths for each room and next time for me to check first and make sure they are there.
+     The next time I check in, my deposit is now up to $100.00 for no reason, I paid it. when I was drinking coffee the morning of check out, I spilled my coffee cup and some went on the counter and some went on the floor. I grabbed the bath matt and cleaned up the floor with it. I grabbed two hand towels and used them to wipe up the counter. 
+     when I checked out, I was told that I had "soiled" the towels and therefore it would be $100.00 for my deposit. I had laid the towels out on the bed, which by the way, neither bed had been laid on...I had spent the night there about two weeks prior, I had a $50 deposit, upon check out I was told that there were two hand towels and two large towels missing. I met housekeeping up there and found the two large towels in the bathroom, found one wash cloth but could not find the other. I was told to go on to the desk, it will be fine. I get to the desk and they charge me $10.00 for a 90 cent wash cloth that was never in my room. I asked the desk people and they said there were two large towels, two medium towels, and two wash cloths for each room and next time for me to check first and make sure they are there.     The next time I check in, my deposit is now up to $100.00 for no reason, I paid it. when I was drinking coffee the morning of check out, I spilled my coffee cup and some went on the counter and some went on the floor. I grabbed the bath matt and cleaned up the floor with it. I grabbed two hand towels and used them to wipe up the counter.      when I checked out, I was told that I had "soiled" the towels and therefore it would be $100.00 for my deposit. I had laid the towels out on the bed, which by the way, neither bed had been laid on nor the covers pulled back. I took a picture of the towels so I would have proof of how many were there. I can't understand how cleaning a coffee spill could result in $100.00 when the towels are white, get bleached each time they are washed. I am including a picture of the towels so you can see. There was another man there and he was charged his deposit because they claimed they smelled smoke in his room that he had put a cash deposit on.     It seems funny to me that the deposits that are put on a credit card are returned and the ones that pay cash are free grab to the employees.Beware of this place!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I had spent the night there about two weeks prior, I had a $50 deposit, upon check out I was told that there were two hand towels and two large towels missing. I met housekeeping up there and found the two large towels in the bathroom, found one wash cloth but could not find the other. I was told to go on to the desk, it will be fine. I get to the desk and they charge me $10.00 for a 90 cent wash cloth that was never in my room. I asked the desk people and they said there were two large towels, two medium towels, and two wash cloths for each room and next time for me to check first and make sure they are there.
+     The next time I check in, my deposit is now up to $100.00 for no reason, I paid it. when I was drinking coffee the morning of check out, I spilled my coffee cup and some went on the counter and some went on the floor. I grabbed the bath matt and cleaned up the floor with it. I grabbed two hand towels and used them to wipe up the counter. 
+     when I checked out, I was told that I had "soiled" the towels and therefore it would be $100.00 for my deposit. I had laid the towels out on the bed, which by the way, neither bed had been laid on...I had spent the night there about two weeks prior, I had a $50 deposit, upon check out I was told that there were two hand towels and two large towels missing. I met housekeeping up there and found the two large towels in the bathroom, found one wash cloth but could not find the other. I was told to go on to the desk, it will be fine. I get to the desk and they charge me $10.00 for a 90 cent wash cloth that was never in my room. I asked the desk people and they said there were two large towels, two medium towels, and two wash cloths for each room and next time for me to check first and make sure they are there.     The next time I check in, my deposit is now up to $100.00 for no reason, I paid it. when I was drinking coffee the morning of check out, I spilled my coffee cup and some went on the counter and some went on the floor. I grabbed the bath matt and cleaned up the floor with it. I grabbed two hand towels and used them to wipe up the counter.      when I checked out, I was told that I had "soiled" the towels and therefore it would be $100.00 for my deposit. I had laid the towels out on the bed, which by the way, neither bed had been laid on nor the covers pulled back. I took a picture of the towels so I would have proof of how many were there. I can't understand how cleaning a coffee spill could result in $100.00 when the towels are white, get bleached each time they are washed. I am including a picture of the towels so you can see. There was another man there and he was charged his deposit because they claimed they smelled smoke in his room that he had put a cash deposit on.     It seems funny to me that the deposits that are put on a credit card are returned and the ones that pay cash are free grab to the employees.Beware of this place!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r444105369-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>444105369</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>great stay , loved the staff they were the best</t>
+  </si>
+  <si>
+    <t>The staff at reception excellent,  couldn't  do enough, very friendly,  housekeeping,  was very good,  breakfast was great , coffee 24hrs available,  clean , we were there for horse events  so not far from the collaseuim , cant fault the hotel, everything you need,  , we will definitely  go back.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r439064367-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>439064367</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>No Complaints</t>
+  </si>
+  <si>
+    <t>Reserved a bigger room. It was 2 rooms connected with couch-bed 2 tvs, plenty of seating, microwave, refrig, and 2 BATHROOMS!  Wifi was fast.  Hot breakfast had a few different hot selections along with the standard continental choices. Rooms were clean and the price was low so we got a great deal.  Stayed one night on Saturday night before Cowboys game, didn't seem very crowded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r436182637-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>436182637</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Sneaky cancellation fee and terrible customer service (Choice Hotels)</t>
+  </si>
+  <si>
+    <t>I do not recommend this hotel or its associated rewards program (Choice Privileges) and advise against relying on Choice's website for information and customer ratings. A friend and I (both seniors) made a reservation by telephone for two nights at this hotel. After the first night, we had to check out because I was ill and needed to return home earlier than anticipated for medical care. I checked out before the required checkout time, 11 am, and asked to cancel the second night. Normally, that is not a problem. But, the Quality Inn clerk insisted on charging me the full price for the second night anyway, claiming 24 hours notice was required. That was a surprise to me. The hotel had not mentioned it when the reservation was made by phone and I had not seen any notice on the website. I called Choice Privileges customer service on my return to complain and waited a long time on hold before speaking at length to a service representative who was unable to give me a clear explanation of how it planned to handle the complaint. After speaking with a second customer service rep, he said they would look into the matter and someone would get back to me. A week later, they called me back. But, the customer service rep ("Maya" no last name) put me on hold again for a long time because the issue still had not been resolved...I do not recommend this hotel or its associated rewards program (Choice Privileges) and advise against relying on Choice's website for information and customer ratings. A friend and I (both seniors) made a reservation by telephone for two nights at this hotel. After the first night, we had to check out because I was ill and needed to return home earlier than anticipated for medical care. I checked out before the required checkout time, 11 am, and asked to cancel the second night. Normally, that is not a problem. But, the Quality Inn clerk insisted on charging me the full price for the second night anyway, claiming 24 hours notice was required. That was a surprise to me. The hotel had not mentioned it when the reservation was made by phone and I had not seen any notice on the website. I called Choice Privileges customer service on my return to complain and waited a long time on hold before speaking at length to a service representative who was unable to give me a clear explanation of how it planned to handle the complaint. After speaking with a second customer service rep, he said they would look into the matter and someone would get back to me. A week later, they called me back. But, the customer service rep ("Maya" no last name) put me on hold again for a long time because the issue still had not been resolved after a week. Eventually, I gave up waiting and hung up. She called back later to say that Quality Inn would not refund the money because a hotel rep claimed I had signed paperwork at the hotel that included a notice of their policy. I pointed out to Customer Service that, even if that was true (I could not recall reading that anywhere and no one had given me a copy of the paperwork), it's unfair to wait to tell a customer about an unorthodox and thus unexpected cancellation policy AFTER one arrives at the hotel, when it could be too late to get a reservation elsewhere. A Choice rep had noted on my previous call that the hotel staff had been unable to point to any place, such as the website, where such a policy was mentioned. Adding insult to injury, my double-priced stay was not credited or even mentioned on my Choice Privileges account, so no points had been allocated to my expensive Quality Inn stay, for which I reportedly should have earned bonus points. After I complained about that, the Quality Inn stay was added to the list. But, unlike every other stay listed in the account -- each providing an option to submit a review-- Choice had eliminated that option for the Quality Inn stay -- the one I had complained about -- marking it "n/a" or not available. Also, that was the only stay for which there was no "Folio" (documentation) available. I thus was prevented from filing a review of the Quality Inn on Choice's website and had no access to paperwork the hotel claimed justified denying a refund. After the nightmare of dealing with Quality Inn and Choice Hotel's customer service, I will never again stay at a Choice hotel or participate in Choice's woefully misnamed "Privileges" program, nor will I trust any hotel chain to provide accurate customer ratings.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I do not recommend this hotel or its associated rewards program (Choice Privileges) and advise against relying on Choice's website for information and customer ratings. A friend and I (both seniors) made a reservation by telephone for two nights at this hotel. After the first night, we had to check out because I was ill and needed to return home earlier than anticipated for medical care. I checked out before the required checkout time, 11 am, and asked to cancel the second night. Normally, that is not a problem. But, the Quality Inn clerk insisted on charging me the full price for the second night anyway, claiming 24 hours notice was required. That was a surprise to me. The hotel had not mentioned it when the reservation was made by phone and I had not seen any notice on the website. I called Choice Privileges customer service on my return to complain and waited a long time on hold before speaking at length to a service representative who was unable to give me a clear explanation of how it planned to handle the complaint. After speaking with a second customer service rep, he said they would look into the matter and someone would get back to me. A week later, they called me back. But, the customer service rep ("Maya" no last name) put me on hold again for a long time because the issue still had not been resolved...I do not recommend this hotel or its associated rewards program (Choice Privileges) and advise against relying on Choice's website for information and customer ratings. A friend and I (both seniors) made a reservation by telephone for two nights at this hotel. After the first night, we had to check out because I was ill and needed to return home earlier than anticipated for medical care. I checked out before the required checkout time, 11 am, and asked to cancel the second night. Normally, that is not a problem. But, the Quality Inn clerk insisted on charging me the full price for the second night anyway, claiming 24 hours notice was required. That was a surprise to me. The hotel had not mentioned it when the reservation was made by phone and I had not seen any notice on the website. I called Choice Privileges customer service on my return to complain and waited a long time on hold before speaking at length to a service representative who was unable to give me a clear explanation of how it planned to handle the complaint. After speaking with a second customer service rep, he said they would look into the matter and someone would get back to me. A week later, they called me back. But, the customer service rep ("Maya" no last name) put me on hold again for a long time because the issue still had not been resolved after a week. Eventually, I gave up waiting and hung up. She called back later to say that Quality Inn would not refund the money because a hotel rep claimed I had signed paperwork at the hotel that included a notice of their policy. I pointed out to Customer Service that, even if that was true (I could not recall reading that anywhere and no one had given me a copy of the paperwork), it's unfair to wait to tell a customer about an unorthodox and thus unexpected cancellation policy AFTER one arrives at the hotel, when it could be too late to get a reservation elsewhere. A Choice rep had noted on my previous call that the hotel staff had been unable to point to any place, such as the website, where such a policy was mentioned. Adding insult to injury, my double-priced stay was not credited or even mentioned on my Choice Privileges account, so no points had been allocated to my expensive Quality Inn stay, for which I reportedly should have earned bonus points. After I complained about that, the Quality Inn stay was added to the list. But, unlike every other stay listed in the account -- each providing an option to submit a review-- Choice had eliminated that option for the Quality Inn stay -- the one I had complained about -- marking it "n/a" or not available. Also, that was the only stay for which there was no "Folio" (documentation) available. I thus was prevented from filing a review of the Quality Inn on Choice's website and had no access to paperwork the hotel claimed justified denying a refund. After the nightmare of dealing with Quality Inn and Choice Hotel's customer service, I will never again stay at a Choice hotel or participate in Choice's woefully misnamed "Privileges" program, nor will I trust any hotel chain to provide accurate customer ratings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r427628693-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>427628693</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This hotel is decent for the price. The beds and pillows are comfortable and it was clean. The lobby area is even nicer. The breakfast was one of the best for a value hotel - waffles, eggs, sausage etc. I had one really rude staff member but another who was incredibly helpful. One word of warning- this hotel does take an automatic $100 fee that will be refunded in appx 3-5 days depending on your bank! I wasn't informed of this during check in so just be aware. All in all, an okay stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r427309668-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>427309668</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there and Bhrat and the rest of the staff were very helpful! Thank you for making our stay so comfortable! The room was very clean no issues at All! Thanks again for everything!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r425619515-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>425619515</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Department of Health should be notified!</t>
+  </si>
+  <si>
+    <t>This is referenced to the "Quality" (NOT) Inn on S. Cherry Lane in Fort Worth. I picked this place because I have a Choice "Frequent Stay" number and have been basically satisfied with stays elsewhere over the years. This was a DISASTER!!! Long story short: I was in FtWorth on business and had to leave the room by 7:30 every morning, returning around 9pm. Arrived late the 1st night and found the room had a STENCH beyond belief. Next morning I complained to the front desk and they said they would look into it. NO CHANGE! So, following morning I asked for another room. None was available, but they would, again, "look into" the horrid stench. So, problem solved, right? NO! I returned, exhausted, to a horrid situation. (A week or so later I was told I should have left, but when could I find another room, being gone all day, and THEY HAD SAID THEY WOULD FIX IT!) Next day they said they'd better check this time since this was the 3rd time I had complained. Disgusting "customer service". 2 more nights and even the maids said it was awful; they kept promising me it would be cleaned up. Last day I was told that...."well, actually, there IS a problem because there was a sewer pipe break a while ago and the rooms flooded and weren't dried out."  Someone at the front desk said that this rental should not...This is referenced to the "Quality" (NOT) Inn on S. Cherry Lane in Fort Worth. I picked this place because I have a Choice "Frequent Stay" number and have been basically satisfied with stays elsewhere over the years. This was a DISASTER!!! Long story short: I was in FtWorth on business and had to leave the room by 7:30 every morning, returning around 9pm. Arrived late the 1st night and found the room had a STENCH beyond belief. Next morning I complained to the front desk and they said they would look into it. NO CHANGE! So, following morning I asked for another room. None was available, but they would, again, "look into" the horrid stench. So, problem solved, right? NO! I returned, exhausted, to a horrid situation. (A week or so later I was told I should have left, but when could I find another room, being gone all day, and THEY HAD SAID THEY WOULD FIX IT!) Next day they said they'd better check this time since this was the 3rd time I had complained. Disgusting "customer service". 2 more nights and even the maids said it was awful; they kept promising me it would be cleaned up. Last day I was told that...."well, actually, there IS a problem because there was a sewer pipe break a while ago and the rooms flooded and weren't dried out."  Someone at the front desk said that this rental should not have happened, and that the motel was going to shut down that whole section for "repairs". When I finally reached the "manager", DAYS LATER, he did admit that the room should NOT have been rented! Then he blamed me for not leaving earlier. I was at the Convention Center for the entire days so there was no time to do that, especially since THEY KEPT PROMISING IT WOULD BE FIXED!!!  This "manager" declined to give me any monetary compensation, offering, instead, that I should let him know when I was coming there the next time and he would give me a "little" discount. Thanks, but no thanks.Will NEVER stay there again. As I said, the Department of Health should be notified! Frankly, Choice Headquarters should immediately exorcise this place from their membership!  (I delayed making this report while I was in computer "meetings" trying to resolve this.)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>This is referenced to the "Quality" (NOT) Inn on S. Cherry Lane in Fort Worth. I picked this place because I have a Choice "Frequent Stay" number and have been basically satisfied with stays elsewhere over the years. This was a DISASTER!!! Long story short: I was in FtWorth on business and had to leave the room by 7:30 every morning, returning around 9pm. Arrived late the 1st night and found the room had a STENCH beyond belief. Next morning I complained to the front desk and they said they would look into it. NO CHANGE! So, following morning I asked for another room. None was available, but they would, again, "look into" the horrid stench. So, problem solved, right? NO! I returned, exhausted, to a horrid situation. (A week or so later I was told I should have left, but when could I find another room, being gone all day, and THEY HAD SAID THEY WOULD FIX IT!) Next day they said they'd better check this time since this was the 3rd time I had complained. Disgusting "customer service". 2 more nights and even the maids said it was awful; they kept promising me it would be cleaned up. Last day I was told that...."well, actually, there IS a problem because there was a sewer pipe break a while ago and the rooms flooded and weren't dried out."  Someone at the front desk said that this rental should not...This is referenced to the "Quality" (NOT) Inn on S. Cherry Lane in Fort Worth. I picked this place because I have a Choice "Frequent Stay" number and have been basically satisfied with stays elsewhere over the years. This was a DISASTER!!! Long story short: I was in FtWorth on business and had to leave the room by 7:30 every morning, returning around 9pm. Arrived late the 1st night and found the room had a STENCH beyond belief. Next morning I complained to the front desk and they said they would look into it. NO CHANGE! So, following morning I asked for another room. None was available, but they would, again, "look into" the horrid stench. So, problem solved, right? NO! I returned, exhausted, to a horrid situation. (A week or so later I was told I should have left, but when could I find another room, being gone all day, and THEY HAD SAID THEY WOULD FIX IT!) Next day they said they'd better check this time since this was the 3rd time I had complained. Disgusting "customer service". 2 more nights and even the maids said it was awful; they kept promising me it would be cleaned up. Last day I was told that...."well, actually, there IS a problem because there was a sewer pipe break a while ago and the rooms flooded and weren't dried out."  Someone at the front desk said that this rental should not have happened, and that the motel was going to shut down that whole section for "repairs". When I finally reached the "manager", DAYS LATER, he did admit that the room should NOT have been rented! Then he blamed me for not leaving earlier. I was at the Convention Center for the entire days so there was no time to do that, especially since THEY KEPT PROMISING IT WOULD BE FIXED!!!  This "manager" declined to give me any monetary compensation, offering, instead, that I should let him know when I was coming there the next time and he would give me a "little" discount. Thanks, but no thanks.Will NEVER stay there again. As I said, the Department of Health should be notified! Frankly, Choice Headquarters should immediately exorcise this place from their membership!  (I delayed making this report while I was in computer "meetings" trying to resolve this.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r421664681-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>421664681</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Review </t>
+  </si>
+  <si>
+    <t>This hotel is clean, friendly, and a quiet place to stay. It is convent  located right off the interstate . It offers a hot breakfast which is great, it's pet friendly, and the staff is friendly. I definitely will stay here again.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r419645065-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>419645065</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Poor. Should not be a CHOICE hotel</t>
+  </si>
+  <si>
+    <t>There was No water pressure, TV speakers were blown so we could not watch TV. At breakfast it looked as if the (questionable locals) spend there nights there too. I was disappointed that Choice hotels didn't have higher standards. Just say NO.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r411018084-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>411018084</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Horrible owner! DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>The owner is the most rude, unreasonable person I have ever spoken with. I recently made a reservation here late at night and tried to cancel after only a few minutes because the person I made the reservation for did not feel safe staying here.  The owner, Nash, is a truly awful person who does not care about his customer at all.  He insisted that his hotel is "perfect" and that there are absolutely no issues.  The negative reviews are all made up, he said.  He even said "I can give you a refund, but I don't want to."  Would you really want to stay at a place where the owner and management are so atrocious?MoreShow less</t>
+  </si>
+  <si>
+    <t>The owner is the most rude, unreasonable person I have ever spoken with. I recently made a reservation here late at night and tried to cancel after only a few minutes because the person I made the reservation for did not feel safe staying here.  The owner, Nash, is a truly awful person who does not care about his customer at all.  He insisted that his hotel is "perfect" and that there are absolutely no issues.  The negative reviews are all made up, he said.  He even said "I can give you a refund, but I don't want to."  Would you really want to stay at a place where the owner and management are so atrocious?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r399195761-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>399195761</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Needing a place to stay for a week while our new home was being finished, we decided to stay at this hotel. The price was right so we decided to try it. We were pleasantly surprised. 
+The rooms are very clean and extremely comfortable and quiet.  They are well equipped. Great TV, small refrigerator, very comfortable bed. 
+Each morning, there is a great breakfast.  Eggs, sausage, baskets and gravy, waffles, muffins, yogurt, five or six choices of cereal.  Very good quality. 
+(Just a note about breakfast.  They give you a voucher for breakfast that tells how many people you paid for in your room. You are required to present the voucher when you eat.  But that will not affect truthful people and keeps out scammers.  Probably keeps the price of the room so low) 
+The service is impeccable. They bend over backward to make sure you are taken care off. Rare in a local motel.  
+There are many restaurants in the area. There is a mall across the street.  Many things to do in the area.  Fort Worth JRB is within sight. 
+It is not the Ritz but it is the best value for the money we have found in a long while. As very seasoned travelers, we have stay in many hotels/motels.  If you are coming to Fort Worth, this is the place to stay without forking out a bunch of cash!
+Thank you Nash!  You and your staff...Needing a place to stay for a week while our new home was being finished, we decided to stay at this hotel. The price was right so we decided to try it. We were pleasantly surprised. The rooms are very clean and extremely comfortable and quiet.  They are well equipped. Great TV, small refrigerator, very comfortable bed. Each morning, there is a great breakfast.  Eggs, sausage, baskets and gravy, waffles, muffins, yogurt, five or six choices of cereal.  Very good quality. (Just a note about breakfast.  They give you a voucher for breakfast that tells how many people you paid for in your room. You are required to present the voucher when you eat.  But that will not affect truthful people and keeps out scammers.  Probably keeps the price of the room so low) The service is impeccable. They bend over backward to make sure you are taken care off. Rare in a local motel.  There are many restaurants in the area. There is a mall across the street.  Many things to do in the area.  Fort Worth JRB is within sight. It is not the Ritz but it is the best value for the money we have found in a long while. As very seasoned travelers, we have stay in many hotels/motels.  If you are coming to Fort Worth, this is the place to stay without forking out a bunch of cash!Thank you Nash!  You and your staff made our week a great time even if we were just killing time till the house was ready!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Needing a place to stay for a week while our new home was being finished, we decided to stay at this hotel. The price was right so we decided to try it. We were pleasantly surprised. 
+The rooms are very clean and extremely comfortable and quiet.  They are well equipped. Great TV, small refrigerator, very comfortable bed. 
+Each morning, there is a great breakfast.  Eggs, sausage, baskets and gravy, waffles, muffins, yogurt, five or six choices of cereal.  Very good quality. 
+(Just a note about breakfast.  They give you a voucher for breakfast that tells how many people you paid for in your room. You are required to present the voucher when you eat.  But that will not affect truthful people and keeps out scammers.  Probably keeps the price of the room so low) 
+The service is impeccable. They bend over backward to make sure you are taken care off. Rare in a local motel.  
+There are many restaurants in the area. There is a mall across the street.  Many things to do in the area.  Fort Worth JRB is within sight. 
+It is not the Ritz but it is the best value for the money we have found in a long while. As very seasoned travelers, we have stay in many hotels/motels.  If you are coming to Fort Worth, this is the place to stay without forking out a bunch of cash!
+Thank you Nash!  You and your staff...Needing a place to stay for a week while our new home was being finished, we decided to stay at this hotel. The price was right so we decided to try it. We were pleasantly surprised. The rooms are very clean and extremely comfortable and quiet.  They are well equipped. Great TV, small refrigerator, very comfortable bed. Each morning, there is a great breakfast.  Eggs, sausage, baskets and gravy, waffles, muffins, yogurt, five or six choices of cereal.  Very good quality. (Just a note about breakfast.  They give you a voucher for breakfast that tells how many people you paid for in your room. You are required to present the voucher when you eat.  But that will not affect truthful people and keeps out scammers.  Probably keeps the price of the room so low) The service is impeccable. They bend over backward to make sure you are taken care off. Rare in a local motel.  There are many restaurants in the area. There is a mall across the street.  Many things to do in the area.  Fort Worth JRB is within sight. It is not the Ritz but it is the best value for the money we have found in a long while. As very seasoned travelers, we have stay in many hotels/motels.  If you are coming to Fort Worth, this is the place to stay without forking out a bunch of cash!Thank you Nash!  You and your staff made our week a great time even if we were just killing time till the house was ready!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r393730096-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>393730096</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Good service and decent room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very decent room, clean and easy to find. Lots of parking and very nice service, very helpful with directions, information about Texas etc. Decent breakfast and good wifi. Decent pool aswell. Nothing to complain about, quite pleased with our stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r393041529-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>393041529</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Great deal!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We drove and flew in as a family/friend vacation to visit six flags and we reserved our rooms at different times. We were able to check in to one room early and requested for the second room to be nearby the first room. The staff was very accomidating and said they would have a room available at the regular check in time for us so we left and grabbed a bite to eat. When we came back they had the room just next door ready and available for check in! We were also able to brimg our dogs which was very helpful as well. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r386397574-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>386397574</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Hotel Website is very deceiving</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel about 445pm.  When we went to our room, it was not ready. So, I went back to the front desk.  The second room we were given was also not ready. They were cleaning the carpets.  FInally, about 515pm, we were given a room. I confirmed with the desk that check-in started at 3pm. When I booked the room, it showed a beautiful room with western decor.  On my email confirmation, it showed the same room.  So when we walked into the room, I was surprised to get an old out dated room. I asked the front desk at check-out about the difference in rooms.  He stated that they only have one of each room type for the western theme and you have to pay more money for the rooms.  I showed him my email confirmation with the western themed room pic.  I told him the website and the email confirmation were very deceiving because of this.  All he said was you have to pay more for that room.  The breakfast area is a very tight area.  They had typical continental breakfast food. The juice machine was out of order.  There are tons of cigarettes on the ground and in ashtrays in the walkways.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel about 445pm.  When we went to our room, it was not ready. So, I went back to the front desk.  The second room we were given was also not ready. They were cleaning the carpets.  FInally, about 515pm, we were given a room. I confirmed with the desk that check-in started at 3pm. When I booked the room, it showed a beautiful room with western decor.  On my email confirmation, it showed the same room.  So when we walked into the room, I was surprised to get an old out dated room. I asked the front desk at check-out about the difference in rooms.  He stated that they only have one of each room type for the western theme and you have to pay more money for the rooms.  I showed him my email confirmation with the western themed room pic.  I told him the website and the email confirmation were very deceiving because of this.  All he said was you have to pay more for that room.  The breakfast area is a very tight area.  They had typical continental breakfast food. The juice machine was out of order.  There are tons of cigarettes on the ground and in ashtrays in the walkways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r384398732-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>384398732</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>No emergency checkout, items in room not working</t>
+  </si>
+  <si>
+    <t>We had made a 3 night stay reservation, but could not stay the third night. We informed the front desk at 7am the morning before, but they enforced the "fine print" in that we had to inform them 24 hours BEFORE our stay started, that the reservation was being altered. We have traveled for business for 45 years and have never had a motel/hotel do this to us. In addition, the toilet would not flush properly, the shower curtain was broken and had to be tied to the showerhead so as not to flood the floor, and there was no working light to see as you entered the room. We reported the toilet issue the first morning and nothing was done. Another tell tale sign of a nervous hotel is guests hanging out on the porches and railings with nothing else to do and finding out they are renting rooms by the month. I would only use this motel for business if I could not find another place to stay and I would not use for any family outing.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had made a 3 night stay reservation, but could not stay the third night. We informed the front desk at 7am the morning before, but they enforced the "fine print" in that we had to inform them 24 hours BEFORE our stay started, that the reservation was being altered. We have traveled for business for 45 years and have never had a motel/hotel do this to us. In addition, the toilet would not flush properly, the shower curtain was broken and had to be tied to the showerhead so as not to flood the floor, and there was no working light to see as you entered the room. We reported the toilet issue the first morning and nothing was done. Another tell tale sign of a nervous hotel is guests hanging out on the porches and railings with nothing else to do and finding out they are renting rooms by the month. I would only use this motel for business if I could not find another place to stay and I would not use for any family outing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r379650007-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379650007</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Beware when you book, you might get turned away</t>
+  </si>
+  <si>
+    <t>Normally if you book through booking sites, the hotel is supposed to inform them if rooms are sold out. Apparently, this Quality Inn Cherry Lane doesn't do that. Showed up (after midnight by the way) and was turned away because they didn't have any more King rooms and couldn't find my booking even though I had confirmation and the booking site also confirmed. They did, however have double rooms, but refused to honor my booking. I have never had this happen, very unprofessional. Every hotel I've gone to that overbooked a type of room, always honored my booking with a different room because IT IS their fault for not informing the booking site that they are at capacity. They were also had an attitude! What happened to customer service? Very disappointed in this hotel and their so-called service! Instead the hotel offered the double room for twice the price which I refused. I am very suspicious that they do this on purpose because they know people will be stuck and have nowhere else to go--then they get the price THEY want.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Normally if you book through booking sites, the hotel is supposed to inform them if rooms are sold out. Apparently, this Quality Inn Cherry Lane doesn't do that. Showed up (after midnight by the way) and was turned away because they didn't have any more King rooms and couldn't find my booking even though I had confirmation and the booking site also confirmed. They did, however have double rooms, but refused to honor my booking. I have never had this happen, very unprofessional. Every hotel I've gone to that overbooked a type of room, always honored my booking with a different room because IT IS their fault for not informing the booking site that they are at capacity. They were also had an attitude! What happened to customer service? Very disappointed in this hotel and their so-called service! Instead the hotel offered the double room for twice the price which I refused. I am very suspicious that they do this on purpose because they know people will be stuck and have nowhere else to go--then they get the price THEY want.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r373123836-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>373123836</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>A budget pick with a nice outdoor pool right off I-30.</t>
+  </si>
+  <si>
+    <t>The hotel is to the west of Fort Worth in White Settlement, but it's an easy drive on i30 to downtown and the zoo. There aren't any restaurants in the area, so the motel provides a free dinner Monday to Thursday (which I wasn't able to try). The breakfast banquet is very nice with cold and continental options as well as eggs, sausage and hash browns. Lots of breads and muffins to choose from, as well as yogurt and oranges. In the lobby, brewed coffee is available 24 hours as well as tea and hot water. Both the lobby/breakfast area and the rooms are heavily scented with air fresheners. I had to air out my room leaving the door open for a couple of hours before I felt comfortable. If you're scent sensitive, this wouldn't be a good option for you. 
+The hotel is very clean. I would definitely recommend the room with the king-sized bed over the queen. The queen room on the ground floor was dark and cramped, but with an enormous bathroom. The king room, on the second floor (accessible by elevator or stairs), was bright and had a couch as well as plenty of room to move around. The king mattress was significantly firmer than the queen. Rooms have phones, hair dryers, a fridge, a microwave, and a coffeemaker. My king room was missing the phone and the coffeemaker, which desk staff said they would amend,...The hotel is to the west of Fort Worth in White Settlement, but it's an easy drive on i30 to downtown and the zoo. There aren't any restaurants in the area, so the motel provides a free dinner Monday to Thursday (which I wasn't able to try). The breakfast banquet is very nice with cold and continental options as well as eggs, sausage and hash browns. Lots of breads and muffins to choose from, as well as yogurt and oranges. In the lobby, brewed coffee is available 24 hours as well as tea and hot water. Both the lobby/breakfast area and the rooms are heavily scented with air fresheners. I had to air out my room leaving the door open for a couple of hours before I felt comfortable. If you're scent sensitive, this wouldn't be a good option for you. The hotel is very clean. I would definitely recommend the room with the king-sized bed over the queen. The queen room on the ground floor was dark and cramped, but with an enormous bathroom. The king room, on the second floor (accessible by elevator or stairs), was bright and had a couch as well as plenty of room to move around. The king mattress was significantly firmer than the queen. Rooms have phones, hair dryers, a fridge, a microwave, and a coffeemaker. My king room was missing the phone and the coffeemaker, which desk staff said they would amend, but had not before I checked out. The outdoor pool is a decent size, clean and well-maintained, with a few tables and chairs on deck. The wifi was stable and I could even use it poolside. There's also a conference room and a laundry on site. The computer in the lobby was barely functional, but the staff happily printed everything I needed when I emailed it to them. All in all, it was a great value for a very reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The hotel is to the west of Fort Worth in White Settlement, but it's an easy drive on i30 to downtown and the zoo. There aren't any restaurants in the area, so the motel provides a free dinner Monday to Thursday (which I wasn't able to try). The breakfast banquet is very nice with cold and continental options as well as eggs, sausage and hash browns. Lots of breads and muffins to choose from, as well as yogurt and oranges. In the lobby, brewed coffee is available 24 hours as well as tea and hot water. Both the lobby/breakfast area and the rooms are heavily scented with air fresheners. I had to air out my room leaving the door open for a couple of hours before I felt comfortable. If you're scent sensitive, this wouldn't be a good option for you. 
+The hotel is very clean. I would definitely recommend the room with the king-sized bed over the queen. The queen room on the ground floor was dark and cramped, but with an enormous bathroom. The king room, on the second floor (accessible by elevator or stairs), was bright and had a couch as well as plenty of room to move around. The king mattress was significantly firmer than the queen. Rooms have phones, hair dryers, a fridge, a microwave, and a coffeemaker. My king room was missing the phone and the coffeemaker, which desk staff said they would amend,...The hotel is to the west of Fort Worth in White Settlement, but it's an easy drive on i30 to downtown and the zoo. There aren't any restaurants in the area, so the motel provides a free dinner Monday to Thursday (which I wasn't able to try). The breakfast banquet is very nice with cold and continental options as well as eggs, sausage and hash browns. Lots of breads and muffins to choose from, as well as yogurt and oranges. In the lobby, brewed coffee is available 24 hours as well as tea and hot water. Both the lobby/breakfast area and the rooms are heavily scented with air fresheners. I had to air out my room leaving the door open for a couple of hours before I felt comfortable. If you're scent sensitive, this wouldn't be a good option for you. The hotel is very clean. I would definitely recommend the room with the king-sized bed over the queen. The queen room on the ground floor was dark and cramped, but with an enormous bathroom. The king room, on the second floor (accessible by elevator or stairs), was bright and had a couch as well as plenty of room to move around. The king mattress was significantly firmer than the queen. Rooms have phones, hair dryers, a fridge, a microwave, and a coffeemaker. My king room was missing the phone and the coffeemaker, which desk staff said they would amend, but had not before I checked out. The outdoor pool is a decent size, clean and well-maintained, with a few tables and chairs on deck. The wifi was stable and I could even use it poolside. There's also a conference room and a laundry on site. The computer in the lobby was barely functional, but the staff happily printed everything I needed when I emailed it to them. All in all, it was a great value for a very reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r366354576-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>366354576</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Clean with nice staff but some questionable people in residence</t>
+  </si>
+  <si>
+    <t>We arrived after a long day of driving.  Desk clerk was nice and got us into our handicapped accessible room which was clean and very nice.  There were large gaps around the door, letting light into the room and the lock was questionable.  The first floor ice machine was broken and my wife had to go to 3rd floor but thankfully there was an elevator.  Our only problem was there were some really scary folks that were staying there and they hung out in the parking lot.  Probably half a dozen gang looking guys with their girlfriends.  They went to their rooms about 10 that evening so no real problems but we were concerned about going to ice machine.  Next morning their were probably over a hundred cigarette butts on the ground around our car and a couple of others.  Would probably find another hotel next time thru Forth Worth especially after reading some of the similar reviews here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We arrived after a long day of driving.  Desk clerk was nice and got us into our handicapped accessible room which was clean and very nice.  There were large gaps around the door, letting light into the room and the lock was questionable.  The first floor ice machine was broken and my wife had to go to 3rd floor but thankfully there was an elevator.  Our only problem was there were some really scary folks that were staying there and they hung out in the parking lot.  Probably half a dozen gang looking guys with their girlfriends.  They went to their rooms about 10 that evening so no real problems but we were concerned about going to ice machine.  Next morning their were probably over a hundred cigarette butts on the ground around our car and a couple of others.  Would probably find another hotel next time thru Forth Worth especially after reading some of the similar reviews here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r363108685-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>363108685</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife and I were very impressed with the level of professionalism, and attitude of the staff and the cleanness of the facility and the room We felt welcome and comfortable.  We appreciate great service , since we've both worked for service-oriented careers. We had no idea we would need a hotel before our vacation,  and are happy that our home repair crisis was made easier because of you!! With sincere thanks , the Marcels. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r350018205-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>350018205</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Easy access, good stay!</t>
+  </si>
+  <si>
+    <t>This hotel is a good Quality Inn property. Staff are very gracious. Rooms are very clean, even the carpeting. On weekdays, there is a small dinner offered free. We had spaghetti with chicken chunks. Very tasty! Bread and beer or wine. It was good not to have to get out after an 800 mile drive! The breakfast was very complete. Definitely you get your monies worth at this property. The outside sidewalks and halls could use a good power washing but everything else was very clean. We booked it again on our return.  Be sure you map it. Fort Worth/Dallas is just one big construction site and you can easily miss an exit. Also be aware that 820 makes a big loop so if you are coming from the south, you will cross it twice!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This hotel is a good Quality Inn property. Staff are very gracious. Rooms are very clean, even the carpeting. On weekdays, there is a small dinner offered free. We had spaghetti with chicken chunks. Very tasty! Bread and beer or wine. It was good not to have to get out after an 800 mile drive! The breakfast was very complete. Definitely you get your monies worth at this property. The outside sidewalks and halls could use a good power washing but everything else was very clean. We booked it again on our return.  Be sure you map it. Fort Worth/Dallas is just one big construction site and you can easily miss an exit. Also be aware that 820 makes a big loop so if you are coming from the south, you will cross it twice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r338923905-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>338923905</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Clean and safe, great for long term stays</t>
+  </si>
+  <si>
+    <t>Friendly staff, good hot breakfast, spacious and clean rooms. They also offer dinner but I never had a chance to try it. Safe and spacious parking lot, very close to I-30, Camp Bowie, and Southwest Blvd. This is a good hotel for long term stays.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r312436852-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>312436852</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Quality at Quality on Cherry Ln!</t>
+  </si>
+  <si>
+    <t>We've stayed here many times over the past 2 yrs for sports events and are extremely pleased each visit. It's not fancy but exactly what we look for in a hotel., complimentary breakfast 7 days a week, complimentary dinner with beer and wine every week day evening, clean, safe, wonderful price, super a/c and great location.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r277283523-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>277283523</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>BAD BAD BAD!</t>
+  </si>
+  <si>
+    <t>They STOLE our money.! Don't go there ever! We called to cancelled one month ago but they still stole our money! Awful place &amp;&amp; awful people.! They say it's a law and blah. All we know is we cancelled it and still stole our money!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r275802780-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>275802780</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scary Stay! </t>
+  </si>
+  <si>
+    <t>My husband and I were meeting my parents and sister's family in Fort Worth for 3 days and this hotel fit everybody's budget. However, I think that we will just pay a little more in the future and stay somewhere nicer. When we booked we requested rooms that were near each other, and we did not get rooms near each other. Our room was missing the HDMI cable, so the TV was not functional, but that was fixed quickly. There were questionable people standing around outside in the hallways, and shortly after we arrived the police was called to remove them from the premises. The tub in our room drained very slowly (even after it was "fixed"). We found a bottle of Viagra (that was still sealed) in the room as well.  The first night we were there, the room next door to us had their door cracked open for several hours. We could see that there was an empty bottle of crown on the night stand, but there were no people in sight. Around 2 am when we were returning from my parents' room, we noticed the room remained the same (with the door open). I yelled through the crack in the door to see if maybe someone was in the restroom, but no one answered. We were afraid that someone was passed out or dead in the restroom, so my husband called the front desk to let them...My husband and I were meeting my parents and sister's family in Fort Worth for 3 days and this hotel fit everybody's budget. However, I think that we will just pay a little more in the future and stay somewhere nicer. When we booked we requested rooms that were near each other, and we did not get rooms near each other. Our room was missing the HDMI cable, so the TV was not functional, but that was fixed quickly. There were questionable people standing around outside in the hallways, and shortly after we arrived the police was called to remove them from the premises. The tub in our room drained very slowly (even after it was "fixed"). We found a bottle of Viagra (that was still sealed) in the room as well.  The first night we were there, the room next door to us had their door cracked open for several hours. We could see that there was an empty bottle of crown on the night stand, but there were no people in sight. Around 2 am when we were returning from my parents' room, we noticed the room remained the same (with the door open). I yelled through the crack in the door to see if maybe someone was in the restroom, but no one answered. We were afraid that someone was passed out or dead in the restroom, so my husband called the front desk to let them know. I still don't know what happened with that situation. There were a couple of good things about the hotel. The beds were comfortable and the full hot breakfast was delicious. We did not take advantage of the free dinner or happy hour. I would not recommend this hotel if you value safety and peace of mind. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were meeting my parents and sister's family in Fort Worth for 3 days and this hotel fit everybody's budget. However, I think that we will just pay a little more in the future and stay somewhere nicer. When we booked we requested rooms that were near each other, and we did not get rooms near each other. Our room was missing the HDMI cable, so the TV was not functional, but that was fixed quickly. There were questionable people standing around outside in the hallways, and shortly after we arrived the police was called to remove them from the premises. The tub in our room drained very slowly (even after it was "fixed"). We found a bottle of Viagra (that was still sealed) in the room as well.  The first night we were there, the room next door to us had their door cracked open for several hours. We could see that there was an empty bottle of crown on the night stand, but there were no people in sight. Around 2 am when we were returning from my parents' room, we noticed the room remained the same (with the door open). I yelled through the crack in the door to see if maybe someone was in the restroom, but no one answered. We were afraid that someone was passed out or dead in the restroom, so my husband called the front desk to let them...My husband and I were meeting my parents and sister's family in Fort Worth for 3 days and this hotel fit everybody's budget. However, I think that we will just pay a little more in the future and stay somewhere nicer. When we booked we requested rooms that were near each other, and we did not get rooms near each other. Our room was missing the HDMI cable, so the TV was not functional, but that was fixed quickly. There were questionable people standing around outside in the hallways, and shortly after we arrived the police was called to remove them from the premises. The tub in our room drained very slowly (even after it was "fixed"). We found a bottle of Viagra (that was still sealed) in the room as well.  The first night we were there, the room next door to us had their door cracked open for several hours. We could see that there was an empty bottle of crown on the night stand, but there were no people in sight. Around 2 am when we were returning from my parents' room, we noticed the room remained the same (with the door open). I yelled through the crack in the door to see if maybe someone was in the restroom, but no one answered. We were afraid that someone was passed out or dead in the restroom, so my husband called the front desk to let them know. I still don't know what happened with that situation. There were a couple of good things about the hotel. The beds were comfortable and the full hot breakfast was delicious. We did not take advantage of the free dinner or happy hour. I would not recommend this hotel if you value safety and peace of mind. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r273641910-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>273641910</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Simply the worse</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was a disaster from check in to check out, promised by Tammy when the reservation was made 3 weeks prior that the 3 rooms we got would be close to each other which we really needed. Bridget (check in person) was rude, unhelpful, extremely poor customer service skills, AC in the room didn't work well, stinky rooms very strong smoke odor AND found 2 disgusting cockroaches, pool not available, broken closet doors. We tried to check out early to go next door to Holiday Inn but we were told they'd charge for one more night as it was a few minutes past check out time (12 noon) we did get a small discount (reimbursed) for one of the rooms only, which was promised after several complaints. I do have to say the Spanish speaking kitchen lady was very nice. WILL NEVER STAY HERE AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was a disaster from check in to check out, promised by Tammy when the reservation was made 3 weeks prior that the 3 rooms we got would be close to each other which we really needed. Bridget (check in person) was rude, unhelpful, extremely poor customer service skills, AC in the room didn't work well, stinky rooms very strong smoke odor AND found 2 disgusting cockroaches, pool not available, broken closet doors. We tried to check out early to go next door to Holiday Inn but we were told they'd charge for one more night as it was a few minutes past check out time (12 noon) we did get a small discount (reimbursed) for one of the rooms only, which was promised after several complaints. I do have to say the Spanish speaking kitchen lady was very nice. WILL NEVER STAY HERE AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r260222305-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>260222305</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Vacation:GREAT PLACE  TO STAY</t>
+  </si>
+  <si>
+    <t>Dan, CSR, was friendly and enjoyable to talk with throughout our 6 night stay. Michael, night time CSR, was friendly and welcoming to all that came in. The breakfast was freshly prepared and the dining area was kept clean throughout the morning. We were there for 6 nights. The rooms were cleaned upon arrival, and the cleaning staff done a wonderful job on cleaning our rooms each day. At night from 7-8 pm they even provide a nice dinner free for all guest.  The price, location, and service was great. We even got to meet Greg, maintenance director, was friendly and welcoming to us as guest. Check-in and out went quickly without any problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Dan, CSR, was friendly and enjoyable to talk with throughout our 6 night stay. Michael, night time CSR, was friendly and welcoming to all that came in. The breakfast was freshly prepared and the dining area was kept clean throughout the morning. We were there for 6 nights. The rooms were cleaned upon arrival, and the cleaning staff done a wonderful job on cleaning our rooms each day. At night from 7-8 pm they even provide a nice dinner free for all guest.  The price, location, and service was great. We even got to meet Greg, maintenance director, was friendly and welcoming to us as guest. Check-in and out went quickly without any problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r259154401-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>259154401</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>This hotel was ok, and the stay was alright. There isn't anything special to say about it. It took 45 minutes to get checked in and the room was small but alright. Housekeeping cares and did a good job but the bed was rickety and uncomfortable. Won't come back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r258452648-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>258452648</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Made reservations even with the mixed reviews. Called them from a concert we were attending to let them know we would be arriving late. He said he would make a note and for us to drive safe. Called back after concert to let them know we were stopping to eat and would be on our way. That call too was friendly and curtious. Arrived at the hotel and we're greeted with a friendly clerk. Got to our room and received a phone call from the clerk to make sure our room was to our liking. Room was clean and comfortable. Was surprised with the affordable price we also got breakfast the next morning. The morning clerk at check out was also very friendly. If ever we need a place to stay in Fort Worth, I will be returning to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Made reservations even with the mixed reviews. Called them from a concert we were attending to let them know we would be arriving late. He said he would make a note and for us to drive safe. Called back after concert to let them know we were stopping to eat and would be on our way. That call too was friendly and curtious. Arrived at the hotel and we're greeted with a friendly clerk. Got to our room and received a phone call from the clerk to make sure our room was to our liking. Room was clean and comfortable. Was surprised with the affordable price we also got breakfast the next morning. The morning clerk at check out was also very friendly. If ever we need a place to stay in Fort Worth, I will be returning to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r247958529-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>247958529</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Over prices</t>
+  </si>
+  <si>
+    <t>I stayed at a hotel last night for half the price that provided all the same services. It's also smaller on the inside. Sure this one is much fancier but the extra price isn't worth it. It does come with all the complimentary bathroom stuff if that makes up for anything.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r246594682-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>246594682</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>OK place to stay in Fort Worth</t>
+  </si>
+  <si>
+    <t>The quality Inn and Suites is conveniently located just off I-30 in Fort worth and a good place to stop if you are driving across country. The rooms are adequate and the breakfast was good enough. There are restaurants in the area but not within walking distance.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r245246210-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>245246210</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Humble and Fair</t>
+  </si>
+  <si>
+    <t>Humble and fair place to stay.A place reasonable priced (probably a little less is more fair), that should be better during the warm season.We had to stay for two days for work and we enjoyed everything. It's just a little far from the center, we undervalued this factor.Rooms are clean and serviced everyday as it should be.King size bed is good and also Tv and a/c.Service was very friendly and helpful for some minor issues.No complaints just a thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r237338009-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>237338009</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>A good place to stay</t>
+  </si>
+  <si>
+    <t>We needed a suite with two separate rooms for ourselves and our adult Grandson. We checked the reviews for the hotels in this area this hotel looked good so we booked it for two nights. We were greeted by a very friendly girl at the check in desk and our check in went smoothly. We went up to our room, which was actually two separate adjoining rooms. They took the bed out of the second room and put in a double pull out sofa. This was perfect for now we had two bathrooms, two closets, two TVs, etc. The rooms themselves were tired and could use an update, but they were clean and bug free. There was a pool, but we didn't use it, and they have a complimentary breakfast, but we slept through it so I can't review it but I expect it to be the typical budget fodder. Since we were just looking for a good clean safe place to sleep and didn't care about the amenities, this place was perfect. It is located just off the highway and down the street from an IHOP, and we were minutes from a mall and several restaurants.This hotel is located in a commercial neighborhood, but it was a safe neighborhood.We would not hesitate to book this hotel again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We needed a suite with two separate rooms for ourselves and our adult Grandson. We checked the reviews for the hotels in this area this hotel looked good so we booked it for two nights. We were greeted by a very friendly girl at the check in desk and our check in went smoothly. We went up to our room, which was actually two separate adjoining rooms. They took the bed out of the second room and put in a double pull out sofa. This was perfect for now we had two bathrooms, two closets, two TVs, etc. The rooms themselves were tired and could use an update, but they were clean and bug free. There was a pool, but we didn't use it, and they have a complimentary breakfast, but we slept through it so I can't review it but I expect it to be the typical budget fodder. Since we were just looking for a good clean safe place to sleep and didn't care about the amenities, this place was perfect. It is located just off the highway and down the street from an IHOP, and we were minutes from a mall and several restaurants.This hotel is located in a commercial neighborhood, but it was a safe neighborhood.We would not hesitate to book this hotel again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r231113518-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>231113518</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Cheap but could be better.</t>
+  </si>
+  <si>
+    <t>This place was okay but could use some cleaning and training for the staff. Breakfast was okay bit no one was cleaning up after the customers. The trash was just left sitting around and the receptacles were full. For some reason they put everyone at the far end of the hotel farthest from the lobby. Could be a nice place for the price with training and better management.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r226788604-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>226788604</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Facilities - ok, Service - needs work</t>
+  </si>
+  <si>
+    <t>Reservation website allowed me to book a room with a king size bed, fold-out couch bed, and rollaway bed ($5 extra) for 2 adults, 3 children.  Got to the room, and no rollaway bed.  Front desk said "That's ok, we're not charging you for the rollaway bed".  I said "Here's the thing - I want you to charge me for the rollaway bed, and I want you to put it in the room".  Was told they couldn't do it and they could put me in a suite, for which I had to pay extra, and had to wait about 30-40 minutes.  Because they made a mistake.  They kept telling me "I don't know how our system let you do that", but it did.  Had it not, I wouldn't have made the reservation in the first place.  I had prepaid for 3 nights, so rather than lose all the money, we stayed; otherwise we would have left after the first night.  Facilities - not bad for the price range.  Bits of concrete falling apart in all the side walks and balconies.  Breakfast - don't bother.  Had to keep asking "do you have more bread?", "do you have more waffle mix?", "do you have more milk?".  On day 2, they ran out of milk and orange juice.  Attendant started taking breakfast items away well before 10 am.  Trash cans always full.  There are too many other hotels in Fort Worth to try...Reservation website allowed me to book a room with a king size bed, fold-out couch bed, and rollaway bed ($5 extra) for 2 adults, 3 children.  Got to the room, and no rollaway bed.  Front desk said "That's ok, we're not charging you for the rollaway bed".  I said "Here's the thing - I want you to charge me for the rollaway bed, and I want you to put it in the room".  Was told they couldn't do it and they could put me in a suite, for which I had to pay extra, and had to wait about 30-40 minutes.  Because they made a mistake.  They kept telling me "I don't know how our system let you do that", but it did.  Had it not, I wouldn't have made the reservation in the first place.  I had prepaid for 3 nights, so rather than lose all the money, we stayed; otherwise we would have left after the first night.  Facilities - not bad for the price range.  Bits of concrete falling apart in all the side walks and balconies.  Breakfast - don't bother.  Had to keep asking "do you have more bread?", "do you have more waffle mix?", "do you have more milk?".  On day 2, they ran out of milk and orange juice.  Attendant started taking breakfast items away well before 10 am.  Trash cans always full.  There are too many other hotels in Fort Worth to try - surely many are better than this.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Reservation website allowed me to book a room with a king size bed, fold-out couch bed, and rollaway bed ($5 extra) for 2 adults, 3 children.  Got to the room, and no rollaway bed.  Front desk said "That's ok, we're not charging you for the rollaway bed".  I said "Here's the thing - I want you to charge me for the rollaway bed, and I want you to put it in the room".  Was told they couldn't do it and they could put me in a suite, for which I had to pay extra, and had to wait about 30-40 minutes.  Because they made a mistake.  They kept telling me "I don't know how our system let you do that", but it did.  Had it not, I wouldn't have made the reservation in the first place.  I had prepaid for 3 nights, so rather than lose all the money, we stayed; otherwise we would have left after the first night.  Facilities - not bad for the price range.  Bits of concrete falling apart in all the side walks and balconies.  Breakfast - don't bother.  Had to keep asking "do you have more bread?", "do you have more waffle mix?", "do you have more milk?".  On day 2, they ran out of milk and orange juice.  Attendant started taking breakfast items away well before 10 am.  Trash cans always full.  There are too many other hotels in Fort Worth to try...Reservation website allowed me to book a room with a king size bed, fold-out couch bed, and rollaway bed ($5 extra) for 2 adults, 3 children.  Got to the room, and no rollaway bed.  Front desk said "That's ok, we're not charging you for the rollaway bed".  I said "Here's the thing - I want you to charge me for the rollaway bed, and I want you to put it in the room".  Was told they couldn't do it and they could put me in a suite, for which I had to pay extra, and had to wait about 30-40 minutes.  Because they made a mistake.  They kept telling me "I don't know how our system let you do that", but it did.  Had it not, I wouldn't have made the reservation in the first place.  I had prepaid for 3 nights, so rather than lose all the money, we stayed; otherwise we would have left after the first night.  Facilities - not bad for the price range.  Bits of concrete falling apart in all the side walks and balconies.  Breakfast - don't bother.  Had to keep asking "do you have more bread?", "do you have more waffle mix?", "do you have more milk?".  On day 2, they ran out of milk and orange juice.  Attendant started taking breakfast items away well before 10 am.  Trash cans always full.  There are too many other hotels in Fort Worth to try - surely many are better than this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r195128621-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>195128621</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Reasonable &amp; clean with friendly staff</t>
+  </si>
+  <si>
+    <t>I booked this room for my husband and myself and an additional room for a co-worker while we were working in the Ft. Worth Area.  I booked the rooms on Priceline and printed out the booking information.  There was a booking number on this paperwork.  When we arrived in the mid-afternoon, I went inside to check in.  The clerk could not find the reservation and told me that the booking number was not their hotel confirmation number. Fortunately, after several minutes, he was able to give me the two king size bed, non-smoking rooms on the first floor at the same price as Priceline was to be.    The rooms were clean, nice towels, very comfortable bed, fridge, microwave and coffee pot, flat screen TV and shower head was new too. Water pressure could be better.  There was a desk and two chairs. It was a decent sized room. Hairdryer didn't work (but didn't discover this until moments before checking out.  Our two rooms were right outside the pool area.  It was very pleasant to be able to return to the hotel after working all day and sit outside by the pool in the evening.  It was fine to take a couple of beers out there and enjoy the great temperatures.  Additionally, the staff was very pleasant.  Nelson, the front desk clerk, was very helpful and also invited us to the nightly happy hour which is in the homey lobby area....I booked this room for my husband and myself and an additional room for a co-worker while we were working in the Ft. Worth Area.  I booked the rooms on Priceline and printed out the booking information.  There was a booking number on this paperwork.  When we arrived in the mid-afternoon, I went inside to check in.  The clerk could not find the reservation and told me that the booking number was not their hotel confirmation number. Fortunately, after several minutes, he was able to give me the two king size bed, non-smoking rooms on the first floor at the same price as Priceline was to be.    The rooms were clean, nice towels, very comfortable bed, fridge, microwave and coffee pot, flat screen TV and shower head was new too. Water pressure could be better.  There was a desk and two chairs. It was a decent sized room. Hairdryer didn't work (but didn't discover this until moments before checking out.  Our two rooms were right outside the pool area.  It was very pleasant to be able to return to the hotel after working all day and sit outside by the pool in the evening.  It was fine to take a couple of beers out there and enjoy the great temperatures.  Additionally, the staff was very pleasant.  Nelson, the front desk clerk, was very helpful and also invited us to the nightly happy hour which is in the homey lobby area.  In the morning, there is a breakfast set up in the same area.  Mini muffins, pastries, yogurt, fruit, coffee, juice, cereal and biscuits and gravy.  This is a hotel that has clearly been trying to update what was an older hotel and we were very satisfied. Parking was easy, internet worked very well.  I wouldn't hesitate to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I booked this room for my husband and myself and an additional room for a co-worker while we were working in the Ft. Worth Area.  I booked the rooms on Priceline and printed out the booking information.  There was a booking number on this paperwork.  When we arrived in the mid-afternoon, I went inside to check in.  The clerk could not find the reservation and told me that the booking number was not their hotel confirmation number. Fortunately, after several minutes, he was able to give me the two king size bed, non-smoking rooms on the first floor at the same price as Priceline was to be.    The rooms were clean, nice towels, very comfortable bed, fridge, microwave and coffee pot, flat screen TV and shower head was new too. Water pressure could be better.  There was a desk and two chairs. It was a decent sized room. Hairdryer didn't work (but didn't discover this until moments before checking out.  Our two rooms were right outside the pool area.  It was very pleasant to be able to return to the hotel after working all day and sit outside by the pool in the evening.  It was fine to take a couple of beers out there and enjoy the great temperatures.  Additionally, the staff was very pleasant.  Nelson, the front desk clerk, was very helpful and also invited us to the nightly happy hour which is in the homey lobby area....I booked this room for my husband and myself and an additional room for a co-worker while we were working in the Ft. Worth Area.  I booked the rooms on Priceline and printed out the booking information.  There was a booking number on this paperwork.  When we arrived in the mid-afternoon, I went inside to check in.  The clerk could not find the reservation and told me that the booking number was not their hotel confirmation number. Fortunately, after several minutes, he was able to give me the two king size bed, non-smoking rooms on the first floor at the same price as Priceline was to be.    The rooms were clean, nice towels, very comfortable bed, fridge, microwave and coffee pot, flat screen TV and shower head was new too. Water pressure could be better.  There was a desk and two chairs. It was a decent sized room. Hairdryer didn't work (but didn't discover this until moments before checking out.  Our two rooms were right outside the pool area.  It was very pleasant to be able to return to the hotel after working all day and sit outside by the pool in the evening.  It was fine to take a couple of beers out there and enjoy the great temperatures.  Additionally, the staff was very pleasant.  Nelson, the front desk clerk, was very helpful and also invited us to the nightly happy hour which is in the homey lobby area.  In the morning, there is a breakfast set up in the same area.  Mini muffins, pastries, yogurt, fruit, coffee, juice, cereal and biscuits and gravy.  This is a hotel that has clearly been trying to update what was an older hotel and we were very satisfied. Parking was easy, internet worked very well.  I wouldn't hesitate to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r193059952-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>193059952</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>no refund</t>
+  </si>
+  <si>
+    <t>had reserved room for Sunday night to be near ft. worth stock show as our 14 year old grand daughter was showing her cow early Monday.  Weather turned bad and husband had just fallen on Friday and is recovering from rotator cufff surgery.  Didn't feel like he could take another fall and didn't need to be on roads (3 people were killed in our county (Grayson) that Sunday in weather related accidents.) In fairness, reservations had told us when I booked Saturday it was non-refundable but thought because of weather they might waive as a courtesy.  We are Choice members and stay MANY nights at year at their hotels.  Called location because they would be aware of weather situation and ultimately would be their call. Nope.  No refundDisappointing they don't treat their loyal customers better.  Why be loyal?  All hotels and booking companies now offer rewards.  Rating based solely on "service"MoreShow less</t>
+  </si>
+  <si>
+    <t>had reserved room for Sunday night to be near ft. worth stock show as our 14 year old grand daughter was showing her cow early Monday.  Weather turned bad and husband had just fallen on Friday and is recovering from rotator cufff surgery.  Didn't feel like he could take another fall and didn't need to be on roads (3 people were killed in our county (Grayson) that Sunday in weather related accidents.) In fairness, reservations had told us when I booked Saturday it was non-refundable but thought because of weather they might waive as a courtesy.  We are Choice members and stay MANY nights at year at their hotels.  Called location because they would be aware of weather situation and ultimately would be their call. Nope.  No refundDisappointing they don't treat their loyal customers better.  Why be loyal?  All hotels and booking companies now offer rewards.  Rating based solely on "service"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r192408784-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>192408784</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!</t>
+  </si>
+  <si>
+    <t>Our room was so dirty, items stuck to the surfaces in the room (I thought the alarm clock was bolted to the night stand - but it was not bolted, it was stuck in grime).  The mattresses were uncomfortable.  The room phone did not work.  When I complained to management about the dirty room, they promised to have housekeeping clean it.  When we returned to the hotel that night, the maid must have been angry we complained because she ruined all of our toothbrushes!  We complained to management again and were promised a discount.  Sadly, they jacked up our rate by 5% to offset the 5% discount that was given to us.  Avoid this location!  Horrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Our room was so dirty, items stuck to the surfaces in the room (I thought the alarm clock was bolted to the night stand - but it was not bolted, it was stuck in grime).  The mattresses were uncomfortable.  The room phone did not work.  When I complained to management about the dirty room, they promised to have housekeeping clean it.  When we returned to the hotel that night, the maid must have been angry we complained because she ruined all of our toothbrushes!  We complained to management again and were promised a discount.  Sadly, they jacked up our rate by 5% to offset the 5% discount that was given to us.  Avoid this location!  Horrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r178156812-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>178156812</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Stayed here with my wife and daughter for 3 nights.  Close by car to the Wills Rogers Coliseum (8 minutes by car in good traffic). We had the handicapped accessible room with  King bed. Very comfortable.  Free WiFi. More than adequate breakfast with lots of choices. Price was extremely reasonable, $54/night senior rate.  My daughter's room was on the other side, queen-size bed.  She reports it was just fine. Staff was very pleasant and helpful.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r176512704-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>176512704</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Not my cup of tea</t>
+  </si>
+  <si>
+    <t>My host made this reservation for me. Must admit I liked the quaint clean western feel of the lobby but not much else. My room was very musty. I'm pretty sure someone smoked in there. The A/C unit was very loud. I couldn't get my room door open. The bed was pretty comfortable but the pillows were all so very lumpy. My shower did not work properly...had to shower with just a trickle. The breakfast was a typical cereal, toast, make your own waffle menu. Really liked the biscuits they were yummy. Just glad I was only there for 1 night but would not want to return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r168586644-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>168586644</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Great quality.........affordable price</t>
+  </si>
+  <si>
+    <t>Stayed for 9 days. Wonderful staff. Good, but simple breakfast. Yet there was plenty of variety. Free beer and wine 2 nights a week. Clean well appointed rooms. If I need to stay again I would stay here. Had absolutely no complaints</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r137010003-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>137010003</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Nice Try</t>
+  </si>
+  <si>
+    <t>Ancient motel with many coats of paint and some interesting decor. Cold, quiet AC, plenty of hot water w/adjustable shower head. Carpet was a little worn, bed was better than expected, but scratchy sheets and comforter made it less than desirable. Lots of dings and the outer doors facing the parking lot showed signs of nights that didn't go well for previous guests. But, it was quiet the night of our stay and we encountered friendly enough folks moving about. Good waffles, pleasant staff. I might stay here again, but I guess I have become a bit of a hotel snob, preferring the security of the modern hotel and the comfort that new amenities bring. But, in a pinch, this'll do. For the price, you get an okay room. They try to dress this old girl up to look appealing, but it just can't hide the fact that it'll take more than paint to compete with newer budget hotels. Nice try.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ancient motel with many coats of paint and some interesting decor. Cold, quiet AC, plenty of hot water w/adjustable shower head. Carpet was a little worn, bed was better than expected, but scratchy sheets and comforter made it less than desirable. Lots of dings and the outer doors facing the parking lot showed signs of nights that didn't go well for previous guests. But, it was quiet the night of our stay and we encountered friendly enough folks moving about. Good waffles, pleasant staff. I might stay here again, but I guess I have become a bit of a hotel snob, preferring the security of the modern hotel and the comfort that new amenities bring. But, in a pinch, this'll do. For the price, you get an okay room. They try to dress this old girl up to look appealing, but it just can't hide the fact that it'll take more than paint to compete with newer budget hotels. Nice try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r128479331-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>128479331</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Pleased to see that the hotel has been well maintained</t>
+  </si>
+  <si>
+    <t>We stayed at this inn when it was fairly new and were pleased to see how well it has been maintained since then.  The breakfast selection is above average for a Quality Inn.  We would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r119720936-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>119720936</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Not the same special Texas hospitality anymore.</t>
+  </si>
+  <si>
+    <t>I gave this place a nice review the last time, but I think it's changed hands, and not for the better.  The staff are okay but don't reflect Texas hospitality like they used to.  The breakfast is fine but doesn't have the menu variety it once did.  Not all the amenities listed in the room were actually available (e.g., no free newspaper).  The wifi was unreliable, but nice computers in the lobby with printer.  Breakfast room is still pleasant with western decor.  TV really bad.  Our king room with sofabed was quite nice.  Owners are still using heavy perfume in the room, but I didn't detect any pet odors this time.  I've been her four or more times before this to visit my Dad, but I'll probably look for an alternative now. I gave *** but that's generous.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I gave this place a nice review the last time, but I think it's changed hands, and not for the better.  The staff are okay but don't reflect Texas hospitality like they used to.  The breakfast is fine but doesn't have the menu variety it once did.  Not all the amenities listed in the room were actually available (e.g., no free newspaper).  The wifi was unreliable, but nice computers in the lobby with printer.  Breakfast room is still pleasant with western decor.  TV really bad.  Our king room with sofabed was quite nice.  Owners are still using heavy perfume in the room, but I didn't detect any pet odors this time.  I've been her four or more times before this to visit my Dad, but I'll probably look for an alternative now. I gave *** but that's generous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r91663808-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>91663808</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>They have Texas size waffles!</t>
+  </si>
+  <si>
+    <t>We were here or a hairshow back in October &amp; I have to say this was such a wonderful little hotel. Breakfast was great. Everything you could possibly want was served! Happy hour was good &amp; the girls in the front desk were super helpful! Overall the experience was great! Quiet location, even after being filled with crazy hairstylist(hairshow) &amp; cowboys(some kinda horse show). p.s. Our instructors &amp; others stayed at a high priced hotel &amp; when the girls &amp; I told them what Quality Inn, boy did they wish they were here!MoreShow less</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2011</t>
+  </si>
+  <si>
+    <t>We were here or a hairshow back in October &amp; I have to say this was such a wonderful little hotel. Breakfast was great. Everything you could possibly want was served! Happy hour was good &amp; the girls in the front desk were super helpful! Overall the experience was great! Quiet location, even after being filled with crazy hairstylist(hairshow) &amp; cowboys(some kinda horse show). p.s. Our instructors &amp; others stayed at a high priced hotel &amp; when the girls &amp; I told them what Quality Inn, boy did they wish they were here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r87089946-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>87089946</t>
+  </si>
+  <si>
+    <t>11/14/2010</t>
+  </si>
+  <si>
+    <t>Great price for a week stay</t>
+  </si>
+  <si>
+    <t>Our first contact with the reservation staff (Debbie) was excellent.  She was very warm and was extremely helpful.  We got a great rate for a week stay.  The rooms were decent and we were able to have our dog with us in the room.  The only complaint we had was that the housekeeping staff did not replace items in the room as they were used.  We stayed for over a week and had to ask several times for our soap to be replaced.  We ran out of tissue, coffee, cups, etc and had to ask to have them replaced.  Those items should have been replaced daily by the housekeeping staff.  Other than that complaint the hotel was fine and was coveniently located off the freeway and 10 minutes from the Will Rogers Equestrian center.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded November 15, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2010</t>
+  </si>
+  <si>
+    <t>Our first contact with the reservation staff (Debbie) was excellent.  She was very warm and was extremely helpful.  We got a great rate for a week stay.  The rooms were decent and we were able to have our dog with us in the room.  The only complaint we had was that the housekeeping staff did not replace items in the room as they were used.  We stayed for over a week and had to ask several times for our soap to be replaced.  We ran out of tissue, coffee, cups, etc and had to ask to have them replaced.  Those items should have been replaced daily by the housekeeping staff.  Other than that complaint the hotel was fine and was coveniently located off the freeway and 10 minutes from the Will Rogers Equestrian center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r86205325-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>86205325</t>
+  </si>
+  <si>
+    <t>11/06/2010</t>
+  </si>
+  <si>
+    <t>This hotel is like a B&amp;B Fort Worth - I agree</t>
+  </si>
+  <si>
+    <t>Another reviewer mentioned that this hotel was like a Fort Worth B &amp; B - dropped in from who knows where. Decor, welcome, the breakfast buffet with the nice Reyna, the get-togethers, the BBQ, the living roomThen the staff - Tim made us cookies when we all arrived. Good folks.We`are a group here for a ministry training and they gave us a meeting room for our training and then we found out that they donate $2 for every room to Habitat for Humanity.These folks run a sweet hotel and have soul to boot. Thanks for a great stay guys.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded November 9, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2010</t>
+  </si>
+  <si>
+    <t>Another reviewer mentioned that this hotel was like a Fort Worth B &amp; B - dropped in from who knows where. Decor, welcome, the breakfast buffet with the nice Reyna, the get-togethers, the BBQ, the living roomThen the staff - Tim made us cookies when we all arrived. Good folks.We`are a group here for a ministry training and they gave us a meeting room for our training and then we found out that they donate $2 for every room to Habitat for Humanity.These folks run a sweet hotel and have soul to boot. Thanks for a great stay guys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r77751126-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>77751126</t>
+  </si>
+  <si>
+    <t>08/31/2010</t>
+  </si>
+  <si>
+    <t>This time was real nice again</t>
+  </si>
+  <si>
+    <t>Stayed agin with these folks and they are as nice as ever. Like a big welcome home. Reyna does a smash up full breakfast - now even more fun as it looks like country store.The room they gave us was one of their "Luxury Rooms" real nce with more pillows, plantation blinds, all sorts of amenties - soaps and things plus robes - two big soft fluffy ones.The housekeepers make the towells into an elephant and then stick eyelashes on as eyes. Too much fun. It's all like a surprising entertainment rather than just a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 15, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2010</t>
+  </si>
+  <si>
+    <t>Stayed agin with these folks and they are as nice as ever. Like a big welcome home. Reyna does a smash up full breakfast - now even more fun as it looks like country store.The room they gave us was one of their "Luxury Rooms" real nce with more pillows, plantation blinds, all sorts of amenties - soaps and things plus robes - two big soft fluffy ones.The housekeepers make the towells into an elephant and then stick eyelashes on as eyes. Too much fun. It's all like a surprising entertainment rather than just a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r71818893-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>71818893</t>
+  </si>
+  <si>
+    <t>07/21/2010</t>
+  </si>
+  <si>
+    <t>The place to stay in Ft. Worth for quality and value</t>
+  </si>
+  <si>
+    <t>My wife, extended family, and I spent the weekend at Quality Inn in Ft. Worth to attend the wedding of our niece. What a wonderful experience! Let me tell you why:1) when we first made reservations by telephone with Eric, we were impressed with the staff's professionalism, courtesy and helpfulness--a great first impression.2) checkin was painless and quick. The rooms were clean, spacious, and loaded with helpful amenities. 3) the location was perfect for our errand-running before the day of the wedding.4) ALL the staff members were kind and efficient. Questions were answered and problems (like a hotel key that failed to work) were solved quickly.5) Hot breakfasts were extensive and GOOD! There was a wide variety of items on the breakfast menu.6) Check-out was also fast and friendly. I hated to leave the hotel!Needless to say, we highly recommend this hotel to anyone needing a quiet, comfortable and affordable place to stay. Try it!P.S. Unfortunately--because of our busy schedule--I was unable to take advantage of the fitness center and pool. Maybe on another trip to Ft. Worth . . .MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 24, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2010</t>
+  </si>
+  <si>
+    <t>My wife, extended family, and I spent the weekend at Quality Inn in Ft. Worth to attend the wedding of our niece. What a wonderful experience! Let me tell you why:1) when we first made reservations by telephone with Eric, we were impressed with the staff's professionalism, courtesy and helpfulness--a great first impression.2) checkin was painless and quick. The rooms were clean, spacious, and loaded with helpful amenities. 3) the location was perfect for our errand-running before the day of the wedding.4) ALL the staff members were kind and efficient. Questions were answered and problems (like a hotel key that failed to work) were solved quickly.5) Hot breakfasts were extensive and GOOD! There was a wide variety of items on the breakfast menu.6) Check-out was also fast and friendly. I hated to leave the hotel!Needless to say, we highly recommend this hotel to anyone needing a quiet, comfortable and affordable place to stay. Try it!P.S. Unfortunately--because of our busy schedule--I was unable to take advantage of the fitness center and pool. Maybe on another trip to Ft. Worth . . .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r71187819-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>71187819</t>
+  </si>
+  <si>
+    <t>07/16/2010</t>
+  </si>
+  <si>
+    <t>This is the only place I'll stay!  The staff, service, breakfast, and location were excellent ! !</t>
+  </si>
+  <si>
+    <t>I was in Fort Worth for three weeks to help a family member.  The hotel I stayed in for my first two nights was a waste of money.  It was expensive, the staff was unfriendly, and the free morning breakfast was meager, unpleasant and the milk sour.  Fortunately, the Quality Inn was just down the street.  I walked into their lobby and immediately felt welcomed by the staff, by the down-home Texas atmosphere of the lobby, and the smell of oven baked cinnamon rolls.  My room was nicely decorated, very clean, and the bed very comfortable.  It also had the additional amenities I needed for my three-week stay such as a refrigerator, microwave, and coffee pot.  Every morning I enjoyed a large selection of breakfast foods the hotel provided for their free breakfast, everything was both abundant and delicious.  I also looked forward to gathering in the lobby in the early evening with other guests to enjoy the  beer, wine and snacks the manager provided.   The manager and staff  created a wonderful, personable place to stay at an affordable price.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I was in Fort Worth for three weeks to help a family member.  The hotel I stayed in for my first two nights was a waste of money.  It was expensive, the staff was unfriendly, and the free morning breakfast was meager, unpleasant and the milk sour.  Fortunately, the Quality Inn was just down the street.  I walked into their lobby and immediately felt welcomed by the staff, by the down-home Texas atmosphere of the lobby, and the smell of oven baked cinnamon rolls.  My room was nicely decorated, very clean, and the bed very comfortable.  It also had the additional amenities I needed for my three-week stay such as a refrigerator, microwave, and coffee pot.  Every morning I enjoyed a large selection of breakfast foods the hotel provided for their free breakfast, everything was both abundant and delicious.  I also looked forward to gathering in the lobby in the early evening with other guests to enjoy the  beer, wine and snacks the manager provided.   The manager and staff  created a wonderful, personable place to stay at an affordable price.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r62793991-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>62793991</t>
+  </si>
+  <si>
+    <t>04/29/2010</t>
+  </si>
+  <si>
+    <t>A really nice place to stay</t>
+  </si>
+  <si>
+    <t>Excellent service, clean, quite room, and a very good breakfast.If  I get back to Ft. Worth, this is where I'd stay again.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r57095257-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>57095257</t>
+  </si>
+  <si>
+    <t>02/25/2010</t>
+  </si>
+  <si>
+    <t>Wouldn't stay anywhere else in Fort Worth</t>
+  </si>
+  <si>
+    <t>I have been a "regular" on a monthly or bi-monthly basis for 3 years. The staff always makes me feel at home and give personal attention. They always know your name (the "regulars").  The beds are wonderful.  Some rooms have refrig and microwave.  Takes 10 minutes to downtown.  The ONLY thing I don't like is the TV doesn't have CNN or MSNBC.  But best free breakfast of any Choice Hotel I've ever stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 8, 2010</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2010</t>
+  </si>
+  <si>
+    <t>I have been a "regular" on a monthly or bi-monthly basis for 3 years. The staff always makes me feel at home and give personal attention. They always know your name (the "regulars").  The beds are wonderful.  Some rooms have refrig and microwave.  Takes 10 minutes to downtown.  The ONLY thing I don't like is the TV doesn't have CNN or MSNBC.  But best free breakfast of any Choice Hotel I've ever stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r55555907-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55555907</t>
+  </si>
+  <si>
+    <t>02/09/2010</t>
+  </si>
+  <si>
+    <t>Best motel on the west side and maybe all of Ft Worth !!</t>
+  </si>
+  <si>
+    <t>We visit family often since moving to Corpus Christi in march 09. We stay at the Cattel Baron every time we go up.Price,location,spotless rooms and above all the great staff make our stay here enjoyable every time we visit. We will stay here many more times in the years to come !!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded February 11, 2010</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2010</t>
+  </si>
+  <si>
+    <t>We visit family often since moving to Corpus Christi in march 09. We stay at the Cattel Baron every time we go up.Price,location,spotless rooms and above all the great staff make our stay here enjoyable every time we visit. We will stay here many more times in the years to come !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r49078496-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>49078496</t>
+  </si>
+  <si>
+    <t>11/12/2009</t>
+  </si>
+  <si>
+    <t>Great Ft Worth Hotel for Horse Folks</t>
+  </si>
+  <si>
+    <t>We searched aroound and settled on this hotel as the price was real good and the parking plenty big for our horse rigs and we could leave them at the hotel. Infact we set up one rig for some of our team to sleep in.All worked out great - meals were big and never ending. Beers at night worked for some of us who were not still back at Will Rogers bedding down.The folks at the froint desk and cleaning bent over to make us at home. The rate we paid even included donations to National Cutting foundation. How fine was that?  Who ever heard of a hotel supporting our folks?Of course we'll be back and we hope the breakfast lady is still there!They also take pets - and just horses.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 28, 2010</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2010</t>
+  </si>
+  <si>
+    <t>We searched aroound and settled on this hotel as the price was real good and the parking plenty big for our horse rigs and we could leave them at the hotel. Infact we set up one rig for some of our team to sleep in.All worked out great - meals were big and never ending. Beers at night worked for some of us who were not still back at Will Rogers bedding down.The folks at the froint desk and cleaning bent over to make us at home. The rate we paid even included donations to National Cutting foundation. How fine was that?  Who ever heard of a hotel supporting our folks?Of course we'll be back and we hope the breakfast lady is still there!They also take pets - and just horses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r37878657-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>37878657</t>
+  </si>
+  <si>
+    <t>08/16/2009</t>
+  </si>
+  <si>
+    <t>Excellent place at a very low price</t>
+  </si>
+  <si>
+    <t>We stayed there one night and it was very comfortable, clean and quiet.  Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 19, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2009</t>
+  </si>
+  <si>
+    <t>We stayed there one night and it was very comfortable, clean and quiet.  Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r35394748-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>35394748</t>
+  </si>
+  <si>
+    <t>07/21/2009</t>
+  </si>
+  <si>
+    <t>Great hotel experience</t>
+  </si>
+  <si>
+    <t>This was a great hotel. We arrived around 1 although check in wasn't until 3.  They gave us our room, and we loved it, except that it was a Queen suite and it should have been a King suite.  I let the front desk staff know, and they were very nice and apologized and said that the King Suite wasn't ready yet, and that we could stay in the Queen suite until our room was ready.  Staff was very polite, rooms were clean, pool was nice and the breakfast was great, with sausage, eggs, biscuits and all the other regular complimentary breakfast items.  The Ft Worth zoo was close by also, which was where we planned on going.  We will definately stay here again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 20, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2009</t>
+  </si>
+  <si>
+    <t>This was a great hotel. We arrived around 1 although check in wasn't until 3.  They gave us our room, and we loved it, except that it was a Queen suite and it should have been a King suite.  I let the front desk staff know, and they were very nice and apologized and said that the King Suite wasn't ready yet, and that we could stay in the Queen suite until our room was ready.  Staff was very polite, rooms were clean, pool was nice and the breakfast was great, with sausage, eggs, biscuits and all the other regular complimentary breakfast items.  The Ft Worth zoo was close by also, which was where we planned on going.  We will definately stay here again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r18398096-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>18398096</t>
+  </si>
+  <si>
+    <t>07/29/2008</t>
+  </si>
+  <si>
+    <t>Cattle Baron gives you all you need</t>
+  </si>
+  <si>
+    <t>The Cattle Baron's Quality Inn Fort Worth is a great place to stay. Located conveniently off I-30, it is not far to downtown Fort Worth or over to Dallas. The rooms are great, internet access no problem and there is also a nice pool. Breakfast in the morning was great and there is nothing to complain about here.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r17710892-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>17710892</t>
+  </si>
+  <si>
+    <t>07/09/2008</t>
+  </si>
+  <si>
+    <t>So nice we stayed there twice</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Cattle Barron's Quality Inn &amp; Suites in Fort Worth.  This was the Hampton Inn in the past.
+Couldn't find a better deal in the area.  It was very clean, had a nice pool which was open 10 -10. The pool was cleaned every morning during our 4 day stay.  We also give big points for this establishment having queen size pull out sofa beds in our King rooms.  The sofa bed was very comfortable. (It seems like other Inns anymore want to put in the tiny sofa's or none at all. Unless you like tiny sofa's you'll like the one's here.)
+The breakfast was terrific and is open from 6-9 or later.
+Guests staying there seemed to be polite and behaved themselves.
+We found it convenient to attractions in the area, about a 12-15 minute drive to the Stockyards, also close to malls and other shopping.  A Target store is right next to it, but I think Target will move down the street about a mile into a new store soon.  It's also around 20 minutes to Six Flags or the water park there. About 40-45 minutes to downtown Dallas.
+It is an older Inn but updated somewhat so it doesn't feel old.
+They've updated the reception area, breakfast area the most and have a couple of computers for guests to use.
+Our bathroom wasn't huge but was sufficient.  If you need something finer...We enjoyed our stay at the Cattle Barron's Quality Inn &amp; Suites in Fort Worth.  This was the Hampton Inn in the past.Couldn't find a better deal in the area.  It was very clean, had a nice pool which was open 10 -10. The pool was cleaned every morning during our 4 day stay.  We also give big points for this establishment having queen size pull out sofa beds in our King rooms.  The sofa bed was very comfortable. (It seems like other Inns anymore want to put in the tiny sofa's or none at all. Unless you like tiny sofa's you'll like the one's here.)The breakfast was terrific and is open from 6-9 or later.Guests staying there seemed to be polite and behaved themselves.We found it convenient to attractions in the area, about a 12-15 minute drive to the Stockyards, also close to malls and other shopping.  A Target store is right next to it, but I think Target will move down the street about a mile into a new store soon.  It's also around 20 minutes to Six Flags or the water park there. About 40-45 minutes to downtown Dallas.It is an older Inn but updated somewhat so it doesn't feel old.They've updated the reception area, breakfast area the most and have a couple of computers for guests to use.Our bathroom wasn't huge but was sufficient.  If you need something finer in the area, then expect to pay quite a bit more money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Cattle Barron's Quality Inn &amp; Suites in Fort Worth.  This was the Hampton Inn in the past.
+Couldn't find a better deal in the area.  It was very clean, had a nice pool which was open 10 -10. The pool was cleaned every morning during our 4 day stay.  We also give big points for this establishment having queen size pull out sofa beds in our King rooms.  The sofa bed was very comfortable. (It seems like other Inns anymore want to put in the tiny sofa's or none at all. Unless you like tiny sofa's you'll like the one's here.)
+The breakfast was terrific and is open from 6-9 or later.
+Guests staying there seemed to be polite and behaved themselves.
+We found it convenient to attractions in the area, about a 12-15 minute drive to the Stockyards, also close to malls and other shopping.  A Target store is right next to it, but I think Target will move down the street about a mile into a new store soon.  It's also around 20 minutes to Six Flags or the water park there. About 40-45 minutes to downtown Dallas.
+It is an older Inn but updated somewhat so it doesn't feel old.
+They've updated the reception area, breakfast area the most and have a couple of computers for guests to use.
+Our bathroom wasn't huge but was sufficient.  If you need something finer...We enjoyed our stay at the Cattle Barron's Quality Inn &amp; Suites in Fort Worth.  This was the Hampton Inn in the past.Couldn't find a better deal in the area.  It was very clean, had a nice pool which was open 10 -10. The pool was cleaned every morning during our 4 day stay.  We also give big points for this establishment having queen size pull out sofa beds in our King rooms.  The sofa bed was very comfortable. (It seems like other Inns anymore want to put in the tiny sofa's or none at all. Unless you like tiny sofa's you'll like the one's here.)The breakfast was terrific and is open from 6-9 or later.Guests staying there seemed to be polite and behaved themselves.We found it convenient to attractions in the area, about a 12-15 minute drive to the Stockyards, also close to malls and other shopping.  A Target store is right next to it, but I think Target will move down the street about a mile into a new store soon.  It's also around 20 minutes to Six Flags or the water park there. About 40-45 minutes to downtown Dallas.It is an older Inn but updated somewhat so it doesn't feel old.They've updated the reception area, breakfast area the most and have a couple of computers for guests to use.Our bathroom wasn't huge but was sufficient.  If you need something finer in the area, then expect to pay quite a bit more money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r15501087-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>15501087</t>
+  </si>
+  <si>
+    <t>04/30/2008</t>
+  </si>
+  <si>
+    <t>Watch out for these guys!</t>
+  </si>
+  <si>
+    <t>Careful when trying to book with this hotel. They will tell you that you have a reservation and then when you show up at the hotel they might tell you that "we have no record of your reservation".I have stayed with them quite a few times now but I will never go back there again!  The staff is friendly but no too bright, especially Nicole!Remember to make sure you bring your hard copy of the reservation receipt with you when you go to check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>GMFortWorthQuality, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 25, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2009</t>
+  </si>
+  <si>
+    <t>Careful when trying to book with this hotel. They will tell you that you have a reservation and then when you show up at the hotel they might tell you that "we have no record of your reservation".I have stayed with them quite a few times now but I will never go back there again!  The staff is friendly but no too bright, especially Nicole!Remember to make sure you bring your hard copy of the reservation receipt with you when you go to check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r10234015-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>10234015</t>
+  </si>
+  <si>
+    <t>10/22/2007</t>
+  </si>
+  <si>
+    <t>Good Hotel / Good price</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel just west of downtown, but without the downtown prices. We selected the Quality Inn &amp; Suites based on reviews at other travel sites and price. The reviews were right all the way around. The hotel was good to very good and the price was less than any of the other hotels in the same area. I was very pleased. The room was clean. The free breakfast included eggs, sausage, biscuits, and waffle bar as well as the usual continental breakfast fare.The good: room, breakfast, and priceThe bad: none</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r7615924-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>7615924</t>
+  </si>
+  <si>
+    <t>05/13/2007</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>A few years back this was a Hampton Inn &amp; Suites.  We stayed here almost exclusively while our son was attending TCU.  We returned for a business trip and found the name changed, but little else.  Customer service is still excellent, rooms are still clean, breakfast is still complimentary and plentful (eggs, biscuits, gravey, sausage, bacon, cereals, mixed fruits, toast, bagles, muffins, milk, cofee, tea, cocoa, etc)  and they have added a computer for hotel guest use and a complimentary evening beverage and snack time in the lobby area.  Apart from some minor wear and tear (this isn't a new hotel) and firm beds (I'm not fond of firm beds but my husband loves them) it's still a convenient, comfortable, reasonably priced place to stay.  We would recommend it and will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>A few years back this was a Hampton Inn &amp; Suites.  We stayed here almost exclusively while our son was attending TCU.  We returned for a business trip and found the name changed, but little else.  Customer service is still excellent, rooms are still clean, breakfast is still complimentary and plentful (eggs, biscuits, gravey, sausage, bacon, cereals, mixed fruits, toast, bagles, muffins, milk, cofee, tea, cocoa, etc)  and they have added a computer for hotel guest use and a complimentary evening beverage and snack time in the lobby area.  Apart from some minor wear and tear (this isn't a new hotel) and firm beds (I'm not fond of firm beds but my husband loves them) it's still a convenient, comfortable, reasonably priced place to stay.  We would recommend it and will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r2698945-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>2698945</t>
+  </si>
+  <si>
+    <t>10/11/2004</t>
+  </si>
+  <si>
+    <t>Friendly staff, quiet, good breakfast</t>
+  </si>
+  <si>
+    <t>We had stayed at this hotel years ago before they remodeled and recently decided to try it again.  Stayed for 4 nights in October 2004 and the changes were very apparent.  Still clean and typically Hampton, but the staff is friendly, the free breakfast has improved, the entrance is nice and open, the personal care products have improved and it looks like they are keeping it up much better than before.  Although they do not allow dogs, even though the on-line web page claims they do, we were not turned away and accepted the $25.00 non-refundable pet deposit because it was to late to book elsewhere.   It was quiet, close to our son's apartment and better than we remembered.  We will return, less our 6-pound Pekinese, for our son's graduation in December.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had stayed at this hotel years ago before they remodeled and recently decided to try it again.  Stayed for 4 nights in October 2004 and the changes were very apparent.  Still clean and typically Hampton, but the staff is friendly, the free breakfast has improved, the entrance is nice and open, the personal care products have improved and it looks like they are keeping it up much better than before.  Although they do not allow dogs, even though the on-line web page claims they do, we were not turned away and accepted the $25.00 non-refundable pet deposit because it was to late to book elsewhere.   It was quiet, close to our son's apartment and better than we remembered.  We will return, less our 6-pound Pekinese, for our son's graduation in December.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2020,4176 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>180</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>180</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>299</v>
+      </c>
+      <c r="O42" t="s">
+        <v>102</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>312</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>102</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s">
+        <v>340</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>347</v>
+      </c>
+      <c r="O49" t="s">
+        <v>102</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
+        <v>351</v>
+      </c>
+      <c r="K50" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s">
+        <v>353</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>354</v>
+      </c>
+      <c r="X50" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>358</v>
+      </c>
+      <c r="J51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K51" t="s">
+        <v>360</v>
+      </c>
+      <c r="L51" t="s">
+        <v>361</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>362</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>363</v>
+      </c>
+      <c r="X51" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" t="s">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>362</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>371</v>
+      </c>
+      <c r="X52" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" t="s">
+        <v>376</v>
+      </c>
+      <c r="K53" t="s">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s">
+        <v>378</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>379</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>388</v>
+      </c>
+      <c r="O54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>389</v>
+      </c>
+      <c r="X54" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" t="s">
+        <v>395</v>
+      </c>
+      <c r="L55" t="s">
+        <v>396</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>397</v>
+      </c>
+      <c r="O55" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>389</v>
+      </c>
+      <c r="X55" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>400</v>
+      </c>
+      <c r="J56" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" t="s">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s">
+        <v>403</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>404</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s">
+        <v>409</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>410</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>411</v>
+      </c>
+      <c r="X57" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>419</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>420</v>
+      </c>
+      <c r="X58" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>424</v>
+      </c>
+      <c r="J59" t="s">
+        <v>425</v>
+      </c>
+      <c r="K59" t="s">
+        <v>426</v>
+      </c>
+      <c r="L59" t="s">
+        <v>427</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>419</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>428</v>
+      </c>
+      <c r="X59" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>432</v>
+      </c>
+      <c r="J60" t="s">
+        <v>433</v>
+      </c>
+      <c r="K60" t="s">
+        <v>434</v>
+      </c>
+      <c r="L60" t="s">
+        <v>435</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>436</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>437</v>
+      </c>
+      <c r="X60" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>440</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>441</v>
+      </c>
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s">
+        <v>443</v>
+      </c>
+      <c r="L61" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" t="s">
+        <v>102</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>446</v>
+      </c>
+      <c r="X61" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>449</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>450</v>
+      </c>
+      <c r="J62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s">
+        <v>452</v>
+      </c>
+      <c r="L62" t="s">
+        <v>453</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>454</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
+        <v>457</v>
+      </c>
+      <c r="K63" t="s">
+        <v>458</v>
+      </c>
+      <c r="L63" t="s">
+        <v>459</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>460</v>
+      </c>
+      <c r="O63" t="s">
+        <v>102</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>462</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>463</v>
+      </c>
+      <c r="J64" t="s">
+        <v>464</v>
+      </c>
+      <c r="K64" t="s">
+        <v>465</v>
+      </c>
+      <c r="L64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>467</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>468</v>
+      </c>
+      <c r="X64" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>472</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+      <c r="K65" t="s">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s">
+        <v>475</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>476</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>478</v>
+      </c>
+      <c r="J66" t="s">
+        <v>479</v>
+      </c>
+      <c r="K66" t="s">
+        <v>480</v>
+      </c>
+      <c r="L66" t="s">
+        <v>481</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>482</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>24038</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>485</v>
+      </c>
+      <c r="J67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K67" t="s">
+        <v>487</v>
+      </c>
+      <c r="L67" t="s">
+        <v>488</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_609.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_609.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lori A</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This place has the most money hungry owners.  Do not stay here.   If they get your credit card number - they charge as they please.  We did NOT stay here - and they still charges card.  Angry ! Beyond words- because I did not cancel with a 24 hour notice.  The reservation was made and cancelled with in 2 hours of each other.  They still charges my card as a no show.  Really????  Are you so money hungry that you need to charge people for mistakes?  I have no need for a room in Fort Worth when I needed (and stayed) in Weatherford TX. No idea how the Fort Worth got booked, but they were called immediately AND THEY STILL CHARGED MY CARD.  Don't stay here. More</t>
   </si>
   <si>
+    <t>ArielL7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r527094832-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>I would give this place ZERO stars if I could. First, they want a $100 deposit up front when you check in. Which is really strange. On the good side, the room seemed clean, there was a microwave and fridge. BUT there was also MOLD in the air and on the bathroom air vent! I woke up with a terrible headache. I wanted to charge THEM $100 for affecting my health. Also, we could hear people talking through the bathroom vent until 4:00 AM in the morning. There were cigarette butts on the ground outside--hundreds of them--everywhere, also old trash. Oh--we left the room spotless, all towels in place, etc. But we still haven't gotten our $100 "deposit" back. So did I pay $164.10 for a moldy room? Breakfast was just okay with the worst coffee I have ever tasted, strange eggs, desiccated fruit. The yogurt was okay, hash browns and white gravy okay. My head still hurts. I will NEVER go back!More</t>
   </si>
   <si>
+    <t>Lynnae H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r524206766-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>This place is old and need an upgrade. The last guy that work there...Brad needs to go. Not friendly, low budget but will charge charge you if you book third party. Don't bother reporting your experience, they only help customers that book directly through the chain. Ridiculous that you have answer questions about you when you call the hotel to be directed to the room. Also, if a customer ask you about the availability of a hotel room, just say we have rooms or not, not lead off with we will charge you for early check in. Anyone interested in staying here DO NOT. This may be a typical Quality Inn for some but its not worth it, you put down a deposit to pay the amount advertised and you have check in and out and if you need to stay longer...of course you pay for another room. Other Quality Inn's are much better. I recommend the Holiday Inn Express next door...very nice and friendly staff. Quality Inn at this location needs to be shut down.More</t>
   </si>
   <si>
+    <t>Raymond W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r500577910-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>When you choose to stay here, please remember that it is a budget lodging and adjust your expectations accordingly. That being said, I was in town for an event and just wanted a cheap place to stay. This met most of my needs; the bed was comfortable and clean, it was close to my event, and the towels folded into an elephant was a nice touch. However, the bathtub was in a pretty sad state as the stopper lever cover was completely off so I could see the plumbing behind the wall, and breakfast was skip worthy.Normally I'd put this at closer to 2-3 stars, but will give it the benefit of the doubt with a 3-4 star rating since it is a budget establishment.More</t>
   </si>
   <si>
+    <t>Vickie Massey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r492579008-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
   </si>
   <si>
     <t>Needed a room for a convention in Downtown Ft Worth and every thing was booked up near the convention center,, this property was a 15 minute drive and a straight shot up I-30...quick and easy.  The rate was awesome considering all the room we had 4 ladies in one room with 2 bathrooms was Fantastic and having a separate living area off the bedroom was cozy to hang out and visit...all the staff was very nice and the breakfast was so good</t>
+  </si>
+  <si>
+    <t>Jerry h</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r480195376-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -295,6 +313,9 @@
      when I checked out, I was told that I had "soiled" the towels and therefore it would be $100.00 for my deposit. I had laid the towels out on the bed, which by the way, neither bed had been laid on...I had spent the night there about two weeks prior, I had a $50 deposit, upon check out I was told that there were two hand towels and two large towels missing. I met housekeeping up there and found the two large towels in the bathroom, found one wash cloth but could not find the other. I was told to go on to the desk, it will be fine. I get to the desk and they charge me $10.00 for a 90 cent wash cloth that was never in my room. I asked the desk people and they said there were two large towels, two medium towels, and two wash cloths for each room and next time for me to check first and make sure they are there.     The next time I check in, my deposit is now up to $100.00 for no reason, I paid it. when I was drinking coffee the morning of check out, I spilled my coffee cup and some went on the counter and some went on the floor. I grabbed the bath matt and cleaned up the floor with it. I grabbed two hand towels and used them to wipe up the counter.      when I checked out, I was told that I had "soiled" the towels and therefore it would be $100.00 for my deposit. I had laid the towels out on the bed, which by the way, neither bed had been laid on nor the covers pulled back. I took a picture of the towels so I would have proof of how many were there. I can't understand how cleaning a coffee spill could result in $100.00 when the towels are white, get bleached each time they are washed. I am including a picture of the towels so you can see. There was another man there and he was charged his deposit because they claimed they smelled smoke in his room that he had put a cash deposit on.     It seems funny to me that the deposits that are put on a credit card are returned and the ones that pay cash are free grab to the employees.Beware of this place!!!!!More</t>
   </si>
   <si>
+    <t>Jacky O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r444105369-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r439064367-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -331,6 +355,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>lmarieMD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r436182637-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -352,6 +379,9 @@
     <t>I do not recommend this hotel or its associated rewards program (Choice Privileges) and advise against relying on Choice's website for information and customer ratings. A friend and I (both seniors) made a reservation by telephone for two nights at this hotel. After the first night, we had to check out because I was ill and needed to return home earlier than anticipated for medical care. I checked out before the required checkout time, 11 am, and asked to cancel the second night. Normally, that is not a problem. But, the Quality Inn clerk insisted on charging me the full price for the second night anyway, claiming 24 hours notice was required. That was a surprise to me. The hotel had not mentioned it when the reservation was made by phone and I had not seen any notice on the website. I called Choice Privileges customer service on my return to complain and waited a long time on hold before speaking at length to a service representative who was unable to give me a clear explanation of how it planned to handle the complaint. After speaking with a second customer service rep, he said they would look into the matter and someone would get back to me. A week later, they called me back. But, the customer service rep ("Maya" no last name) put me on hold again for a long time because the issue still had not been resolved...I do not recommend this hotel or its associated rewards program (Choice Privileges) and advise against relying on Choice's website for information and customer ratings. A friend and I (both seniors) made a reservation by telephone for two nights at this hotel. After the first night, we had to check out because I was ill and needed to return home earlier than anticipated for medical care. I checked out before the required checkout time, 11 am, and asked to cancel the second night. Normally, that is not a problem. But, the Quality Inn clerk insisted on charging me the full price for the second night anyway, claiming 24 hours notice was required. That was a surprise to me. The hotel had not mentioned it when the reservation was made by phone and I had not seen any notice on the website. I called Choice Privileges customer service on my return to complain and waited a long time on hold before speaking at length to a service representative who was unable to give me a clear explanation of how it planned to handle the complaint. After speaking with a second customer service rep, he said they would look into the matter and someone would get back to me. A week later, they called me back. But, the customer service rep ("Maya" no last name) put me on hold again for a long time because the issue still had not been resolved after a week. Eventually, I gave up waiting and hung up. She called back later to say that Quality Inn would not refund the money because a hotel rep claimed I had signed paperwork at the hotel that included a notice of their policy. I pointed out to Customer Service that, even if that was true (I could not recall reading that anywhere and no one had given me a copy of the paperwork), it's unfair to wait to tell a customer about an unorthodox and thus unexpected cancellation policy AFTER one arrives at the hotel, when it could be too late to get a reservation elsewhere. A Choice rep had noted on my previous call that the hotel staff had been unable to point to any place, such as the website, where such a policy was mentioned. Adding insult to injury, my double-priced stay was not credited or even mentioned on my Choice Privileges account, so no points had been allocated to my expensive Quality Inn stay, for which I reportedly should have earned bonus points. After I complained about that, the Quality Inn stay was added to the list. But, unlike every other stay listed in the account -- each providing an option to submit a review-- Choice had eliminated that option for the Quality Inn stay -- the one I had complained about -- marking it "n/a" or not available. Also, that was the only stay for which there was no "Folio" (documentation) available. I thus was prevented from filing a review of the Quality Inn on Choice's website and had no access to paperwork the hotel claimed justified denying a refund. After the nightmare of dealing with Quality Inn and Choice Hotel's customer service, I will never again stay at a Choice hotel or participate in Choice's woefully misnamed "Privileges" program, nor will I trust any hotel chain to provide accurate customer ratings.More</t>
   </si>
   <si>
+    <t>shelbytaylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r427628693-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t>This hotel is decent for the price. The beds and pillows are comfortable and it was clean. The lobby area is even nicer. The breakfast was one of the best for a value hotel - waffles, eggs, sausage etc. I had one really rude staff member but another who was incredibly helpful. One word of warning- this hotel does take an automatic $100 fee that will be refunded in appx 3-5 days depending on your bank! I wasn't informed of this during check in so just be aware. All in all, an okay stay!</t>
   </si>
   <si>
+    <t>wjhobbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r427309668-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>My wife and I stayed there and Bhrat and the rest of the staff were very helpful! Thank you for making our stay so comfortable! The room was very clean no issues at All! Thanks again for everything!!!</t>
   </si>
   <si>
+    <t>OnTheRoadAgain02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r425619515-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -403,6 +439,9 @@
     <t>This is referenced to the "Quality" (NOT) Inn on S. Cherry Lane in Fort Worth. I picked this place because I have a Choice "Frequent Stay" number and have been basically satisfied with stays elsewhere over the years. This was a DISASTER!!! Long story short: I was in FtWorth on business and had to leave the room by 7:30 every morning, returning around 9pm. Arrived late the 1st night and found the room had a STENCH beyond belief. Next morning I complained to the front desk and they said they would look into it. NO CHANGE! So, following morning I asked for another room. None was available, but they would, again, "look into" the horrid stench. So, problem solved, right? NO! I returned, exhausted, to a horrid situation. (A week or so later I was told I should have left, but when could I find another room, being gone all day, and THEY HAD SAID THEY WOULD FIX IT!) Next day they said they'd better check this time since this was the 3rd time I had complained. Disgusting "customer service". 2 more nights and even the maids said it was awful; they kept promising me it would be cleaned up. Last day I was told that...."well, actually, there IS a problem because there was a sewer pipe break a while ago and the rooms flooded and weren't dried out."  Someone at the front desk said that this rental should not...This is referenced to the "Quality" (NOT) Inn on S. Cherry Lane in Fort Worth. I picked this place because I have a Choice "Frequent Stay" number and have been basically satisfied with stays elsewhere over the years. This was a DISASTER!!! Long story short: I was in FtWorth on business and had to leave the room by 7:30 every morning, returning around 9pm. Arrived late the 1st night and found the room had a STENCH beyond belief. Next morning I complained to the front desk and they said they would look into it. NO CHANGE! So, following morning I asked for another room. None was available, but they would, again, "look into" the horrid stench. So, problem solved, right? NO! I returned, exhausted, to a horrid situation. (A week or so later I was told I should have left, but when could I find another room, being gone all day, and THEY HAD SAID THEY WOULD FIX IT!) Next day they said they'd better check this time since this was the 3rd time I had complained. Disgusting "customer service". 2 more nights and even the maids said it was awful; they kept promising me it would be cleaned up. Last day I was told that...."well, actually, there IS a problem because there was a sewer pipe break a while ago and the rooms flooded and weren't dried out."  Someone at the front desk said that this rental should not have happened, and that the motel was going to shut down that whole section for "repairs". When I finally reached the "manager", DAYS LATER, he did admit that the room should NOT have been rented! Then he blamed me for not leaving earlier. I was at the Convention Center for the entire days so there was no time to do that, especially since THEY KEPT PROMISING IT WOULD BE FIXED!!!  This "manager" declined to give me any monetary compensation, offering, instead, that I should let him know when I was coming there the next time and he would give me a "little" discount. Thanks, but no thanks.Will NEVER stay there again. As I said, the Department of Health should be notified! Frankly, Choice Headquarters should immediately exorcise this place from their membership!  (I delayed making this report while I was in computer "meetings" trying to resolve this.)More</t>
   </si>
   <si>
+    <t>Glenda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r421664681-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -421,6 +460,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Kelly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r419645065-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -439,6 +481,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>chaparrito7654321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r411018084-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -455,6 +500,9 @@
   </si>
   <si>
     <t>The owner is the most rude, unreasonable person I have ever spoken with. I recently made a reservation here late at night and tried to cancel after only a few minutes because the person I made the reservation for did not feel safe staying here.  The owner, Nash, is a truly awful person who does not care about his customer at all.  He insisted that his hotel is "perfect" and that there are absolutely no issues.  The negative reviews are all made up, he said.  He even said "I can give you a refund, but I don't want to."  Would you really want to stay at a place where the owner and management are so atrocious?More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r399195761-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -492,6 +540,9 @@
 Thank you Nash!  You and your staff...Needing a place to stay for a week while our new home was being finished, we decided to stay at this hotel. The price was right so we decided to try it. We were pleasantly surprised. The rooms are very clean and extremely comfortable and quiet.  They are well equipped. Great TV, small refrigerator, very comfortable bed. Each morning, there is a great breakfast.  Eggs, sausage, baskets and gravy, waffles, muffins, yogurt, five or six choices of cereal.  Very good quality. (Just a note about breakfast.  They give you a voucher for breakfast that tells how many people you paid for in your room. You are required to present the voucher when you eat.  But that will not affect truthful people and keeps out scammers.  Probably keeps the price of the room so low) The service is impeccable. They bend over backward to make sure you are taken care off. Rare in a local motel.  There are many restaurants in the area. There is a mall across the street.  Many things to do in the area.  Fort Worth JRB is within sight. It is not the Ritz but it is the best value for the money we have found in a long while. As very seasoned travelers, we have stay in many hotels/motels.  If you are coming to Fort Worth, this is the place to stay without forking out a bunch of cash!Thank you Nash!  You and your staff made our week a great time even if we were just killing time till the house was ready!More</t>
   </si>
   <si>
+    <t>Peter L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r393730096-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t xml:space="preserve">Very decent room, clean and easy to find. Lots of parking and very nice service, very helpful with directions, information about Texas etc. Decent breakfast and good wifi. Decent pool aswell. Nothing to complain about, quite pleased with our stay. </t>
   </si>
   <si>
+    <t>Iris G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r393041529-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,6 +576,9 @@
     <t xml:space="preserve">We drove and flew in as a family/friend vacation to visit six flags and we reserved our rooms at different times. We were able to check in to one room early and requested for the second room to be nearby the first room. The staff was very accomidating and said they would have a room available at the regular check in time for us so we left and grabbed a bite to eat. When we came back they had the room just next door ready and available for check in! We were also able to brimg our dogs which was very helpful as well. </t>
   </si>
   <si>
+    <t>Kristina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r386397574-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t>We arrived at the hotel about 445pm.  When we went to our room, it was not ready. So, I went back to the front desk.  The second room we were given was also not ready. They were cleaning the carpets.  FInally, about 515pm, we were given a room. I confirmed with the desk that check-in started at 3pm. When I booked the room, it showed a beautiful room with western decor.  On my email confirmation, it showed the same room.  So when we walked into the room, I was surprised to get an old out dated room. I asked the front desk at check-out about the difference in rooms.  He stated that they only have one of each room type for the western theme and you have to pay more money for the rooms.  I showed him my email confirmation with the western themed room pic.  I told him the website and the email confirmation were very deceiving because of this.  All he said was you have to pay more for that room.  The breakfast area is a very tight area.  They had typical continental breakfast food. The juice machine was out of order.  There are tons of cigarettes on the ground and in ashtrays in the walkways.More</t>
   </si>
   <si>
+    <t>GrandDetour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r384398732-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,6 +621,9 @@
     <t>We had made a 3 night stay reservation, but could not stay the third night. We informed the front desk at 7am the morning before, but they enforced the "fine print" in that we had to inform them 24 hours BEFORE our stay started, that the reservation was being altered. We have traveled for business for 45 years and have never had a motel/hotel do this to us. In addition, the toilet would not flush properly, the shower curtain was broken and had to be tied to the showerhead so as not to flood the floor, and there was no working light to see as you entered the room. We reported the toilet issue the first morning and nothing was done. Another tell tale sign of a nervous hotel is guests hanging out on the porches and railings with nothing else to do and finding out they are renting rooms by the month. I would only use this motel for business if I could not find another place to stay and I would not use for any family outing.More</t>
   </si>
   <si>
+    <t>James C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r379650007-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -580,6 +643,9 @@
   </si>
   <si>
     <t>Normally if you book through booking sites, the hotel is supposed to inform them if rooms are sold out. Apparently, this Quality Inn Cherry Lane doesn't do that. Showed up (after midnight by the way) and was turned away because they didn't have any more King rooms and couldn't find my booking even though I had confirmation and the booking site also confirmed. They did, however have double rooms, but refused to honor my booking. I have never had this happen, very unprofessional. Every hotel I've gone to that overbooked a type of room, always honored my booking with a different room because IT IS their fault for not informing the booking site that they are at capacity. They were also had an attitude! What happened to customer service? Very disappointed in this hotel and their so-called service! Instead the hotel offered the double room for twice the price which I refused. I am very suspicious that they do this on purpose because they know people will be stuck and have nowhere else to go--then they get the price THEY want.More</t>
+  </si>
+  <si>
+    <t>cguertin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r373123836-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -605,6 +671,9 @@
 The hotel is very clean. I would definitely recommend the room with the king-sized bed over the queen. The queen room on the ground floor was dark and cramped, but with an enormous bathroom. The king room, on the second floor (accessible by elevator or stairs), was bright and had a couch as well as plenty of room to move around. The king mattress was significantly firmer than the queen. Rooms have phones, hair dryers, a fridge, a microwave, and a coffeemaker. My king room was missing the phone and the coffeemaker, which desk staff said they would amend,...The hotel is to the west of Fort Worth in White Settlement, but it's an easy drive on i30 to downtown and the zoo. There aren't any restaurants in the area, so the motel provides a free dinner Monday to Thursday (which I wasn't able to try). The breakfast banquet is very nice with cold and continental options as well as eggs, sausage and hash browns. Lots of breads and muffins to choose from, as well as yogurt and oranges. In the lobby, brewed coffee is available 24 hours as well as tea and hot water. Both the lobby/breakfast area and the rooms are heavily scented with air fresheners. I had to air out my room leaving the door open for a couple of hours before I felt comfortable. If you're scent sensitive, this wouldn't be a good option for you. The hotel is very clean. I would definitely recommend the room with the king-sized bed over the queen. The queen room on the ground floor was dark and cramped, but with an enormous bathroom. The king room, on the second floor (accessible by elevator or stairs), was bright and had a couch as well as plenty of room to move around. The king mattress was significantly firmer than the queen. Rooms have phones, hair dryers, a fridge, a microwave, and a coffeemaker. My king room was missing the phone and the coffeemaker, which desk staff said they would amend, but had not before I checked out. The outdoor pool is a decent size, clean and well-maintained, with a few tables and chairs on deck. The wifi was stable and I could even use it poolside. There's also a conference room and a laundry on site. The computer in the lobby was barely functional, but the staff happily printed everything I needed when I emailed it to them. All in all, it was a great value for a very reasonable price.More</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r366354576-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -626,6 +695,9 @@
     <t>We arrived after a long day of driving.  Desk clerk was nice and got us into our handicapped accessible room which was clean and very nice.  There were large gaps around the door, letting light into the room and the lock was questionable.  The first floor ice machine was broken and my wife had to go to 3rd floor but thankfully there was an elevator.  Our only problem was there were some really scary folks that were staying there and they hung out in the parking lot.  Probably half a dozen gang looking guys with their girlfriends.  They went to their rooms about 10 that evening so no real problems but we were concerned about going to ice machine.  Next morning their were probably over a hundred cigarette butts on the ground around our car and a couple of others.  Would probably find another hotel next time thru Forth Worth especially after reading some of the similar reviews here.More</t>
   </si>
   <si>
+    <t>jmarcel62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r363108685-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -641,6 +713,9 @@
     <t xml:space="preserve">My wife and I were very impressed with the level of professionalism, and attitude of the staff and the cleanness of the facility and the room We felt welcome and comfortable.  We appreciate great service , since we've both worked for service-oriented careers. We had no idea we would need a hotel before our vacation,  and are happy that our home repair crisis was made easier because of you!! With sincere thanks , the Marcels. </t>
   </si>
   <si>
+    <t>ladybug512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r350018205-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -662,6 +737,9 @@
     <t>This hotel is a good Quality Inn property. Staff are very gracious. Rooms are very clean, even the carpeting. On weekdays, there is a small dinner offered free. We had spaghetti with chicken chunks. Very tasty! Bread and beer or wine. It was good not to have to get out after an 800 mile drive! The breakfast was very complete. Definitely you get your monies worth at this property. The outside sidewalks and halls could use a good power washing but everything else was very clean. We booked it again on our return.  Be sure you map it. Fort Worth/Dallas is just one big construction site and you can easily miss an exit. Also be aware that 820 makes a big loop so if you are coming from the south, you will cross it twice!More</t>
   </si>
   <si>
+    <t>andresjt83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r338923905-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -680,6 +758,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>hoktefrog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r312436852-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -698,6 +779,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Upset133</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r277283523-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -716,6 +800,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>teal_daisy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r275802780-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -734,6 +821,9 @@
     <t>My husband and I were meeting my parents and sister's family in Fort Worth for 3 days and this hotel fit everybody's budget. However, I think that we will just pay a little more in the future and stay somewhere nicer. When we booked we requested rooms that were near each other, and we did not get rooms near each other. Our room was missing the HDMI cable, so the TV was not functional, but that was fixed quickly. There were questionable people standing around outside in the hallways, and shortly after we arrived the police was called to remove them from the premises. The tub in our room drained very slowly (even after it was "fixed"). We found a bottle of Viagra (that was still sealed) in the room as well.  The first night we were there, the room next door to us had their door cracked open for several hours. We could see that there was an empty bottle of crown on the night stand, but there were no people in sight. Around 2 am when we were returning from my parents' room, we noticed the room remained the same (with the door open). I yelled through the crack in the door to see if maybe someone was in the restroom, but no one answered. We were afraid that someone was passed out or dead in the restroom, so my husband called the front desk to let them...My husband and I were meeting my parents and sister's family in Fort Worth for 3 days and this hotel fit everybody's budget. However, I think that we will just pay a little more in the future and stay somewhere nicer. When we booked we requested rooms that were near each other, and we did not get rooms near each other. Our room was missing the HDMI cable, so the TV was not functional, but that was fixed quickly. There were questionable people standing around outside in the hallways, and shortly after we arrived the police was called to remove them from the premises. The tub in our room drained very slowly (even after it was "fixed"). We found a bottle of Viagra (that was still sealed) in the room as well.  The first night we were there, the room next door to us had their door cracked open for several hours. We could see that there was an empty bottle of crown on the night stand, but there were no people in sight. Around 2 am when we were returning from my parents' room, we noticed the room remained the same (with the door open). I yelled through the crack in the door to see if maybe someone was in the restroom, but no one answered. We were afraid that someone was passed out or dead in the restroom, so my husband called the front desk to let them know. I still don't know what happened with that situation. There were a couple of good things about the hotel. The beds were comfortable and the full hot breakfast was delicious. We did not take advantage of the free dinner or happy hour. I would not recommend this hotel if you value safety and peace of mind. More</t>
   </si>
   <si>
+    <t>Mayra L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r273641910-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -755,6 +845,9 @@
     <t>Our stay at this hotel was a disaster from check in to check out, promised by Tammy when the reservation was made 3 weeks prior that the 3 rooms we got would be close to each other which we really needed. Bridget (check in person) was rude, unhelpful, extremely poor customer service skills, AC in the room didn't work well, stinky rooms very strong smoke odor AND found 2 disgusting cockroaches, pool not available, broken closet doors. We tried to check out early to go next door to Holiday Inn but we were told they'd charge for one more night as it was a few minutes past check out time (12 noon) we did get a small discount (reimbursed) for one of the rooms only, which was promised after several complaints. I do have to say the Spanish speaking kitchen lady was very nice. WILL NEVER STAY HERE AGAIN.More</t>
   </si>
   <si>
+    <t>revsheffield</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r260222305-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -776,6 +869,9 @@
     <t>Dan, CSR, was friendly and enjoyable to talk with throughout our 6 night stay. Michael, night time CSR, was friendly and welcoming to all that came in. The breakfast was freshly prepared and the dining area was kept clean throughout the morning. We were there for 6 nights. The rooms were cleaned upon arrival, and the cleaning staff done a wonderful job on cleaning our rooms each day. At night from 7-8 pm they even provide a nice dinner free for all guest.  The price, location, and service was great. We even got to meet Greg, maintenance director, was friendly and welcoming to us as guest. Check-in and out went quickly without any problems.More</t>
   </si>
   <si>
+    <t>Jaclanh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r259154401-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -791,6 +887,9 @@
     <t>This hotel was ok, and the stay was alright. There isn't anything special to say about it. It took 45 minutes to get checked in and the room was small but alright. Housekeeping cares and did a good job but the bed was rickety and uncomfortable. Won't come back</t>
   </si>
   <si>
+    <t>Tx2step31774</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r258452648-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -809,6 +908,9 @@
     <t>Made reservations even with the mixed reviews. Called them from a concert we were attending to let them know we would be arriving late. He said he would make a note and for us to drive safe. Called back after concert to let them know we were stopping to eat and would be on our way. That call too was friendly and curtious. Arrived at the hotel and we're greeted with a friendly clerk. Got to our room and received a phone call from the clerk to make sure our room was to our liking. Room was clean and comfortable. Was surprised with the affordable price we also got breakfast the next morning. The morning clerk at check out was also very friendly. If ever we need a place to stay in Fort Worth, I will be returning to this place.More</t>
   </si>
   <si>
+    <t>Steve W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r247958529-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -827,6 +929,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>DarylJ552</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r246594682-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -845,6 +950,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>MosthoB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r245246210-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -860,6 +968,9 @@
     <t>Humble and fair place to stay.A place reasonable priced (probably a little less is more fair), that should be better during the warm season.We had to stay for two days for work and we enjoyed everything. It's just a little far from the center, we undervalued this factor.Rooms are clean and serviced everyday as it should be.King size bed is good and also Tv and a/c.Service was very friendly and helpful for some minor issues.No complaints just a thank you.</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r237338009-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -881,6 +992,9 @@
     <t>We needed a suite with two separate rooms for ourselves and our adult Grandson. We checked the reviews for the hotels in this area this hotel looked good so we booked it for two nights. We were greeted by a very friendly girl at the check in desk and our check in went smoothly. We went up to our room, which was actually two separate adjoining rooms. They took the bed out of the second room and put in a double pull out sofa. This was perfect for now we had two bathrooms, two closets, two TVs, etc. The rooms themselves were tired and could use an update, but they were clean and bug free. There was a pool, but we didn't use it, and they have a complimentary breakfast, but we slept through it so I can't review it but I expect it to be the typical budget fodder. Since we were just looking for a good clean safe place to sleep and didn't care about the amenities, this place was perfect. It is located just off the highway and down the street from an IHOP, and we were minutes from a mall and several restaurants.This hotel is located in a commercial neighborhood, but it was a safe neighborhood.We would not hesitate to book this hotel again in the future.More</t>
   </si>
   <si>
+    <t>Journeytonowhere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r231113518-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -899,6 +1013,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>kccarlson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r226788604-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1037,9 @@
     <t>Reservation website allowed me to book a room with a king size bed, fold-out couch bed, and rollaway bed ($5 extra) for 2 adults, 3 children.  Got to the room, and no rollaway bed.  Front desk said "That's ok, we're not charging you for the rollaway bed".  I said "Here's the thing - I want you to charge me for the rollaway bed, and I want you to put it in the room".  Was told they couldn't do it and they could put me in a suite, for which I had to pay extra, and had to wait about 30-40 minutes.  Because they made a mistake.  They kept telling me "I don't know how our system let you do that", but it did.  Had it not, I wouldn't have made the reservation in the first place.  I had prepaid for 3 nights, so rather than lose all the money, we stayed; otherwise we would have left after the first night.  Facilities - not bad for the price range.  Bits of concrete falling apart in all the side walks and balconies.  Breakfast - don't bother.  Had to keep asking "do you have more bread?", "do you have more waffle mix?", "do you have more milk?".  On day 2, they ran out of milk and orange juice.  Attendant started taking breakfast items away well before 10 am.  Trash cans always full.  There are too many other hotels in Fort Worth to try...Reservation website allowed me to book a room with a king size bed, fold-out couch bed, and rollaway bed ($5 extra) for 2 adults, 3 children.  Got to the room, and no rollaway bed.  Front desk said "That's ok, we're not charging you for the rollaway bed".  I said "Here's the thing - I want you to charge me for the rollaway bed, and I want you to put it in the room".  Was told they couldn't do it and they could put me in a suite, for which I had to pay extra, and had to wait about 30-40 minutes.  Because they made a mistake.  They kept telling me "I don't know how our system let you do that", but it did.  Had it not, I wouldn't have made the reservation in the first place.  I had prepaid for 3 nights, so rather than lose all the money, we stayed; otherwise we would have left after the first night.  Facilities - not bad for the price range.  Bits of concrete falling apart in all the side walks and balconies.  Breakfast - don't bother.  Had to keep asking "do you have more bread?", "do you have more waffle mix?", "do you have more milk?".  On day 2, they ran out of milk and orange juice.  Attendant started taking breakfast items away well before 10 am.  Trash cans always full.  There are too many other hotels in Fort Worth to try - surely many are better than this.More</t>
   </si>
   <si>
+    <t>travelgrlBaltimore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r195128621-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1061,9 @@
     <t>I booked this room for my husband and myself and an additional room for a co-worker while we were working in the Ft. Worth Area.  I booked the rooms on Priceline and printed out the booking information.  There was a booking number on this paperwork.  When we arrived in the mid-afternoon, I went inside to check in.  The clerk could not find the reservation and told me that the booking number was not their hotel confirmation number. Fortunately, after several minutes, he was able to give me the two king size bed, non-smoking rooms on the first floor at the same price as Priceline was to be.    The rooms were clean, nice towels, very comfortable bed, fridge, microwave and coffee pot, flat screen TV and shower head was new too. Water pressure could be better.  There was a desk and two chairs. It was a decent sized room. Hairdryer didn't work (but didn't discover this until moments before checking out.  Our two rooms were right outside the pool area.  It was very pleasant to be able to return to the hotel after working all day and sit outside by the pool in the evening.  It was fine to take a couple of beers out there and enjoy the great temperatures.  Additionally, the staff was very pleasant.  Nelson, the front desk clerk, was very helpful and also invited us to the nightly happy hour which is in the homey lobby area....I booked this room for my husband and myself and an additional room for a co-worker while we were working in the Ft. Worth Area.  I booked the rooms on Priceline and printed out the booking information.  There was a booking number on this paperwork.  When we arrived in the mid-afternoon, I went inside to check in.  The clerk could not find the reservation and told me that the booking number was not their hotel confirmation number. Fortunately, after several minutes, he was able to give me the two king size bed, non-smoking rooms on the first floor at the same price as Priceline was to be.    The rooms were clean, nice towels, very comfortable bed, fridge, microwave and coffee pot, flat screen TV and shower head was new too. Water pressure could be better.  There was a desk and two chairs. It was a decent sized room. Hairdryer didn't work (but didn't discover this until moments before checking out.  Our two rooms were right outside the pool area.  It was very pleasant to be able to return to the hotel after working all day and sit outside by the pool in the evening.  It was fine to take a couple of beers out there and enjoy the great temperatures.  Additionally, the staff was very pleasant.  Nelson, the front desk clerk, was very helpful and also invited us to the nightly happy hour which is in the homey lobby area.  In the morning, there is a breakfast set up in the same area.  Mini muffins, pastries, yogurt, fruit, coffee, juice, cereal and biscuits and gravy.  This is a hotel that has clearly been trying to update what was an older hotel and we were very satisfied. Parking was easy, internet worked very well.  I wouldn't hesitate to stay there.More</t>
   </si>
   <si>
+    <t>K W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r193059952-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1082,9 @@
     <t>had reserved room for Sunday night to be near ft. worth stock show as our 14 year old grand daughter was showing her cow early Monday.  Weather turned bad and husband had just fallen on Friday and is recovering from rotator cufff surgery.  Didn't feel like he could take another fall and didn't need to be on roads (3 people were killed in our county (Grayson) that Sunday in weather related accidents.) In fairness, reservations had told us when I booked Saturday it was non-refundable but thought because of weather they might waive as a courtesy.  We are Choice members and stay MANY nights at year at their hotels.  Called location because they would be aware of weather situation and ultimately would be their call. Nope.  No refundDisappointing they don't treat their loyal customers better.  Why be loyal?  All hotels and booking companies now offer rewards.  Rating based solely on "service"More</t>
   </si>
   <si>
+    <t>SharonFromTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r192408784-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1106,9 @@
     <t>Our room was so dirty, items stuck to the surfaces in the room (I thought the alarm clock was bolted to the night stand - but it was not bolted, it was stuck in grime).  The mattresses were uncomfortable.  The room phone did not work.  When I complained to management about the dirty room, they promised to have housekeeping clean it.  When we returned to the hotel that night, the maid must have been angry we complained because she ruined all of our toothbrushes!  We complained to management again and were promised a discount.  Sadly, they jacked up our rate by 5% to offset the 5% discount that was given to us.  Avoid this location!  Horrible!More</t>
   </si>
   <si>
+    <t>Eric W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r178156812-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1127,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Kathy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r176512704-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1145,9 @@
     <t>My host made this reservation for me. Must admit I liked the quaint clean western feel of the lobby but not much else. My room was very musty. I'm pretty sure someone smoked in there. The A/C unit was very loud. I couldn't get my room door open. The bed was pretty comfortable but the pillows were all so very lumpy. My shower did not work properly...had to shower with just a trickle. The breakfast was a typical cereal, toast, make your own waffle menu. Really liked the biscuits they were yummy. Just glad I was only there for 1 night but would not want to return.</t>
   </si>
   <si>
+    <t>Tim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r168586644-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1163,9 @@
     <t>Stayed for 9 days. Wonderful staff. Good, but simple breakfast. Yet there was plenty of variety. Free beer and wine 2 nights a week. Clean well appointed rooms. If I need to stay again I would stay here. Had absolutely no complaints</t>
   </si>
   <si>
+    <t>VinGins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r137010003-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1046,6 +1184,9 @@
     <t>Ancient motel with many coats of paint and some interesting decor. Cold, quiet AC, plenty of hot water w/adjustable shower head. Carpet was a little worn, bed was better than expected, but scratchy sheets and comforter made it less than desirable. Lots of dings and the outer doors facing the parking lot showed signs of nights that didn't go well for previous guests. But, it was quiet the night of our stay and we encountered friendly enough folks moving about. Good waffles, pleasant staff. I might stay here again, but I guess I have become a bit of a hotel snob, preferring the security of the modern hotel and the comfort that new amenities bring. But, in a pinch, this'll do. For the price, you get an okay room. They try to dress this old girl up to look appealing, but it just can't hide the fact that it'll take more than paint to compete with newer budget hotels. Nice try.More</t>
   </si>
   <si>
+    <t>Tweentrails</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r128479331-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1205,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>PBandJ01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r119720936-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1229,9 @@
     <t>I gave this place a nice review the last time, but I think it's changed hands, and not for the better.  The staff are okay but don't reflect Texas hospitality like they used to.  The breakfast is fine but doesn't have the menu variety it once did.  Not all the amenities listed in the room were actually available (e.g., no free newspaper).  The wifi was unreliable, but nice computers in the lobby with printer.  Breakfast room is still pleasant with western decor.  TV really bad.  Our king room with sofabed was quite nice.  Owners are still using heavy perfume in the room, but I didn't detect any pet odors this time.  I've been her four or more times before this to visit my Dad, but I'll probably look for an alternative now. I gave *** but that's generous.More</t>
   </si>
   <si>
+    <t>itdlv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r91663808-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1256,9 @@
     <t>We were here or a hairshow back in October &amp; I have to say this was such a wonderful little hotel. Breakfast was great. Everything you could possibly want was served! Happy hour was good &amp; the girls in the front desk were super helpful! Overall the experience was great! Quiet location, even after being filled with crazy hairstylist(hairshow) &amp; cowboys(some kinda horse show). p.s. Our instructors &amp; others stayed at a high priced hotel &amp; when the girls &amp; I told them what Quality Inn, boy did they wish they were here!More</t>
   </si>
   <si>
+    <t>Washingtoncowgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r87089946-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1286,9 @@
     <t>Our first contact with the reservation staff (Debbie) was excellent.  She was very warm and was extremely helpful.  We got a great rate for a week stay.  The rooms were decent and we were able to have our dog with us in the room.  The only complaint we had was that the housekeeping staff did not replace items in the room as they were used.  We stayed for over a week and had to ask several times for our soap to be replaced.  We ran out of tissue, coffee, cups, etc and had to ask to have them replaced.  Those items should have been replaced daily by the housekeeping staff.  Other than that complaint the hotel was fine and was coveniently located off the freeway and 10 minutes from the Will Rogers Equestrian center.More</t>
   </si>
   <si>
+    <t>McCallRoad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r86205325-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1313,9 @@
     <t>Another reviewer mentioned that this hotel was like a Fort Worth B &amp; B - dropped in from who knows where. Decor, welcome, the breakfast buffet with the nice Reyna, the get-togethers, the BBQ, the living roomThen the staff - Tim made us cookies when we all arrived. Good folks.We`are a group here for a ministry training and they gave us a meeting room for our training and then we found out that they donate $2 for every room to Habitat for Humanity.These folks run a sweet hotel and have soul to boot. Thanks for a great stay guys.More</t>
   </si>
   <si>
+    <t>JennieFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r77751126-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1187,6 +1343,9 @@
     <t>Stayed agin with these folks and they are as nice as ever. Like a big welcome home. Reyna does a smash up full breakfast - now even more fun as it looks like country store.The room they gave us was one of their "Luxury Rooms" real nce with more pillows, plantation blinds, all sorts of amenties - soaps and things plus robes - two big soft fluffy ones.The housekeepers make the towells into an elephant and then stick eyelashes on as eyes. Too much fun. It's all like a surprising entertainment rather than just a hotel.More</t>
   </si>
   <si>
+    <t>RBCFlorida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r71818893-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1373,9 @@
     <t>My wife, extended family, and I spent the weekend at Quality Inn in Ft. Worth to attend the wedding of our niece. What a wonderful experience! Let me tell you why:1) when we first made reservations by telephone with Eric, we were impressed with the staff's professionalism, courtesy and helpfulness--a great first impression.2) checkin was painless and quick. The rooms were clean, spacious, and loaded with helpful amenities. 3) the location was perfect for our errand-running before the day of the wedding.4) ALL the staff members were kind and efficient. Questions were answered and problems (like a hotel key that failed to work) were solved quickly.5) Hot breakfasts were extensive and GOOD! There was a wide variety of items on the breakfast menu.6) Check-out was also fast and friendly. I hated to leave the hotel!Needless to say, we highly recommend this hotel to anyone needing a quiet, comfortable and affordable place to stay. Try it!P.S. Unfortunately--because of our busy schedule--I was unable to take advantage of the fitness center and pool. Maybe on another trip to Ft. Worth . . .More</t>
   </si>
   <si>
+    <t>kca096</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r71187819-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1397,9 @@
     <t>I was in Fort Worth for three weeks to help a family member.  The hotel I stayed in for my first two nights was a waste of money.  It was expensive, the staff was unfriendly, and the free morning breakfast was meager, unpleasant and the milk sour.  Fortunately, the Quality Inn was just down the street.  I walked into their lobby and immediately felt welcomed by the staff, by the down-home Texas atmosphere of the lobby, and the smell of oven baked cinnamon rolls.  My room was nicely decorated, very clean, and the bed very comfortable.  It also had the additional amenities I needed for my three-week stay such as a refrigerator, microwave, and coffee pot.  Every morning I enjoyed a large selection of breakfast foods the hotel provided for their free breakfast, everything was both abundant and delicious.  I also looked forward to gathering in the lobby in the early evening with other guests to enjoy the  beer, wine and snacks the manager provided.   The manager and staff  created a wonderful, personable place to stay at an affordable price.  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>gumpper88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r62793991-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1253,6 +1418,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>rehablady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r57095257-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1448,9 @@
     <t>I have been a "regular" on a monthly or bi-monthly basis for 3 years. The staff always makes me feel at home and give personal attention. They always know your name (the "regulars").  The beds are wonderful.  Some rooms have refrig and microwave.  Takes 10 minutes to downtown.  The ONLY thing I don't like is the TV doesn't have CNN or MSNBC.  But best free breakfast of any Choice Hotel I've ever stayed.More</t>
   </si>
   <si>
+    <t>bigkahuna3447</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r55555907-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1478,9 @@
     <t>We visit family often since moving to Corpus Christi in march 09. We stay at the Cattel Baron every time we go up.Price,location,spotless rooms and above all the great staff make our stay here enjoyable every time we visit. We will stay here many more times in the years to come !!More</t>
   </si>
   <si>
+    <t>claire-painted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r49078496-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1331,6 +1505,9 @@
     <t>We searched aroound and settled on this hotel as the price was real good and the parking plenty big for our horse rigs and we could leave them at the hotel. Infact we set up one rig for some of our team to sleep in.All worked out great - meals were big and never ending. Beers at night worked for some of us who were not still back at Will Rogers bedding down.The folks at the froint desk and cleaning bent over to make us at home. The rate we paid even included donations to National Cutting foundation. How fine was that?  Who ever heard of a hotel supporting our folks?Of course we'll be back and we hope the breakfast lady is still there!They also take pets - and just horses.More</t>
   </si>
   <si>
+    <t>texasredtop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r37878657-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1535,9 @@
     <t>We stayed there one night and it was very comfortable, clean and quiet.  Would definitely stay there again.More</t>
   </si>
   <si>
+    <t>radavies1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r35394748-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1565,9 @@
     <t>This was a great hotel. We arrived around 1 although check in wasn't until 3.  They gave us our room, and we loved it, except that it was a Queen suite and it should have been a King suite.  I let the front desk staff know, and they were very nice and apologized and said that the King Suite wasn't ready yet, and that we could stay in the Queen suite until our room was ready.  Staff was very polite, rooms were clean, pool was nice and the breakfast was great, with sausage, eggs, biscuits and all the other regular complimentary breakfast items.  The Ft Worth zoo was close by also, which was where we planned on going.  We will definately stay here again if we are in the area.More</t>
   </si>
   <si>
+    <t>Robin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r18398096-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1584,9 @@
   </si>
   <si>
     <t>July 2008</t>
+  </si>
+  <si>
+    <t>gotaluvme</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r17710892-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -1438,6 +1624,9 @@
 Our bathroom wasn't huge but was sufficient.  If you need something finer...We enjoyed our stay at the Cattle Barron's Quality Inn &amp; Suites in Fort Worth.  This was the Hampton Inn in the past.Couldn't find a better deal in the area.  It was very clean, had a nice pool which was open 10 -10. The pool was cleaned every morning during our 4 day stay.  We also give big points for this establishment having queen size pull out sofa beds in our King rooms.  The sofa bed was very comfortable. (It seems like other Inns anymore want to put in the tiny sofa's or none at all. Unless you like tiny sofa's you'll like the one's here.)The breakfast was terrific and is open from 6-9 or later.Guests staying there seemed to be polite and behaved themselves.We found it convenient to attractions in the area, about a 12-15 minute drive to the Stockyards, also close to malls and other shopping.  A Target store is right next to it, but I think Target will move down the street about a mile into a new store soon.  It's also around 20 minutes to Six Flags or the water park there. About 40-45 minutes to downtown Dallas.It is an older Inn but updated somewhat so it doesn't feel old.They've updated the reception area, breakfast area the most and have a couple of computers for guests to use.Our bathroom wasn't huge but was sufficient.  If you need something finer in the area, then expect to pay quite a bit more money.More</t>
   </si>
   <si>
+    <t>Greg_walls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r15501087-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1465,6 +1654,9 @@
     <t>Careful when trying to book with this hotel. They will tell you that you have a reservation and then when you show up at the hotel they might tell you that "we have no record of your reservation".I have stayed with them quite a few times now but I will never go back there again!  The staff is friendly but no too bright, especially Nicole!Remember to make sure you bring your hard copy of the reservation receipt with you when you go to check in.More</t>
   </si>
   <si>
+    <t>Little_Traveler_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r10234015-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1673,9 @@
   </si>
   <si>
     <t>October 2007</t>
+  </si>
+  <si>
+    <t>Rebekajean</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98839-r7615924-Quality_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -2024,43 +2219,47 @@
       <c r="A2" t="n">
         <v>24038</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>23637</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2072,56 +2271,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24038</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>173807</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2135,50 +2338,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24038</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173808</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2198,50 +2405,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24038</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>17276</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2255,50 +2466,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24038</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>173809</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2318,50 +2533,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24038</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>173810</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2381,50 +2600,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24038</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>173811</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2444,50 +2667,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24038</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2505,50 +2732,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24038</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>173812</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2568,50 +2799,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24038</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173813</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2625,50 +2860,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24038</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>173814</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2688,50 +2927,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24038</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>173815</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2749,50 +2992,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24038</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>57133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2806,50 +3053,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24038</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2869,50 +3120,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24038</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>173816</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2932,50 +3187,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24038</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2989,50 +3248,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24038</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3046,50 +3309,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24038</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7696</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3103,50 +3370,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24038</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>23726</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3164,50 +3435,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24038</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>173817</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3225,50 +3500,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24038</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>4611</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3288,50 +3567,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24038</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173818</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3351,50 +3634,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24038</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>466</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3414,50 +3701,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24038</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>173819</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3481,50 +3772,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24038</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>173820</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3544,50 +3839,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24038</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>173821</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3605,50 +3904,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24038</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>173822</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3668,50 +3971,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24038</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>173823</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3725,41 +4032,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24038</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173824</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
@@ -3778,50 +4089,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24038</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>173825</v>
+      </c>
+      <c r="C31" t="s">
+        <v>261</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3839,50 +4154,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24038</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>173826</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3902,50 +4221,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24038</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>173827</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3959,50 +4282,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24038</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>173828</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4016,50 +4343,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24038</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>10664</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4073,50 +4404,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24038</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>61615</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4136,50 +4471,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24038</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>173829</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4193,50 +4532,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>24038</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4254,50 +4597,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>24038</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>10467</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4311,50 +4658,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>24038</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>15238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4374,50 +4725,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>24038</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>173830</v>
+      </c>
+      <c r="C41" t="s">
+        <v>333</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4441,50 +4796,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>24038</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>66075</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4500,50 +4859,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>24038</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>173831</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4567,50 +4930,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>24038</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>13433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4634,50 +5001,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>24038</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>6369</v>
+      </c>
+      <c r="C45" t="s">
+        <v>363</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="J45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="K45" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4701,41 +5072,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>24038</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>41097</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4764,41 +5139,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>24038</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>173832</v>
+      </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
@@ -4827,50 +5206,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>24038</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>173833</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4894,50 +5277,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>24038</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>173834</v>
+      </c>
+      <c r="C49" t="s">
+        <v>389</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="O49" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4961,41 +5348,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>24038</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>173835</v>
+      </c>
+      <c r="C50" t="s">
+        <v>397</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="J50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5022,56 +5413,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="X50" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="Y50" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>24038</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>173836</v>
+      </c>
+      <c r="C51" t="s">
+        <v>406</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="J51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="K51" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5093,56 +5488,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="X51" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="Y51" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>24038</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>173837</v>
+      </c>
+      <c r="C52" t="s">
+        <v>416</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5164,56 +5563,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="X52" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="Y52" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>24038</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>173838</v>
+      </c>
+      <c r="C53" t="s">
+        <v>425</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="J53" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="K53" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5235,56 +5638,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="X53" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>24038</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>173839</v>
+      </c>
+      <c r="C54" t="s">
+        <v>435</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="J54" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="K54" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="O54" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5306,56 +5713,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="X54" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="Y54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>24038</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>173840</v>
+      </c>
+      <c r="C55" t="s">
+        <v>445</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="K55" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="O55" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5377,56 +5788,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="X55" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="Y55" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>24038</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>173841</v>
+      </c>
+      <c r="C56" t="s">
+        <v>453</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="J56" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="K56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="L56" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5440,50 +5855,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>24038</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>173842</v>
+      </c>
+      <c r="C57" t="s">
+        <v>460</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="J57" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="K57" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5505,56 +5924,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="X57" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="Y57" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>24038</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>173843</v>
+      </c>
+      <c r="C58" t="s">
+        <v>470</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="K58" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="L58" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5576,56 +5999,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="X58" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="Y58" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>24038</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>173844</v>
+      </c>
+      <c r="C59" t="s">
+        <v>480</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="J59" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="L59" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5647,56 +6074,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="X59" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="Y59" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>24038</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>173845</v>
+      </c>
+      <c r="C60" t="s">
+        <v>489</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="J60" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="K60" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5718,56 +6149,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="X60" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="Y60" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>24038</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>173846</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="J61" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="O61" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5789,56 +6224,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="X61" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="Y61" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>24038</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>31935</v>
+      </c>
+      <c r="C62" t="s">
+        <v>509</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="J62" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="K62" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="L62" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5862,50 +6301,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>24038</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>173847</v>
+      </c>
+      <c r="C63" t="s">
+        <v>516</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="J63" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="K63" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="L63" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5929,50 +6372,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>24038</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>173848</v>
+      </c>
+      <c r="C64" t="s">
+        <v>524</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="J64" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="K64" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="L64" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -5994,56 +6441,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="X64" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="Y64" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>24038</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>173849</v>
+      </c>
+      <c r="C65" t="s">
+        <v>534</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="J65" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="K65" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="L65" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6067,50 +6518,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>24038</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>46274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>541</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="J66" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="K66" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="L66" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6134,41 +6589,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>24038</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>46274</v>
+      </c>
+      <c r="C67" t="s">
+        <v>541</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>549</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="K67" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="L67" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -6187,7 +6646,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
